--- a/03.Clasificacion/Intervalos_poligonales/Interval_Motorway_29042024.xlsx
+++ b/03.Clasificacion/Intervalos_poligonales/Interval_Motorway_29042024.xlsx
@@ -2012,7 +2012,7 @@
         <v>632</v>
       </c>
       <c r="V22" t="n">
-        <v>27.61588319088319</v>
+        <v>28.07222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -2082,7 +2082,7 @@
         <v>632</v>
       </c>
       <c r="V23" t="n">
-        <v>27.66509971509971</v>
+        <v>28.14375</v>
       </c>
     </row>
     <row r="24">
@@ -2152,7 +2152,7 @@
         <v>632</v>
       </c>
       <c r="V24" t="n">
-        <v>27.71431623931624</v>
+        <v>28.21527777777778</v>
       </c>
     </row>
     <row r="25">
@@ -2222,7 +2222,7 @@
         <v>632</v>
       </c>
       <c r="V25" t="n">
-        <v>27.76353276353276</v>
+        <v>28.28680555555556</v>
       </c>
     </row>
     <row r="26">
@@ -2292,7 +2292,7 @@
         <v>632</v>
       </c>
       <c r="V26" t="n">
-        <v>27.81274928774928</v>
+        <v>28.35833333333333</v>
       </c>
     </row>
     <row r="27">
@@ -2362,7 +2362,7 @@
         <v>632</v>
       </c>
       <c r="V27" t="n">
-        <v>27.86196581196581</v>
+        <v>28.60833333333333</v>
       </c>
     </row>
     <row r="28">
@@ -2432,7 +2432,7 @@
         <v>633</v>
       </c>
       <c r="V28" t="n">
-        <v>27.91118233618233</v>
+        <v>28.85833333333333</v>
       </c>
     </row>
     <row r="29">
@@ -2502,7 +2502,7 @@
         <v>633</v>
       </c>
       <c r="V29" t="n">
-        <v>27.96039886039886</v>
+        <v>28.93055555555556</v>
       </c>
     </row>
     <row r="30">
@@ -2572,7 +2572,7 @@
         <v>633</v>
       </c>
       <c r="V30" t="n">
-        <v>28.00961538461538</v>
+        <v>29.00277777777778</v>
       </c>
     </row>
     <row r="31">
@@ -2642,7 +2642,7 @@
         <v>633</v>
       </c>
       <c r="V31" t="n">
-        <v>28.05883190883191</v>
+        <v>28.99694444444444</v>
       </c>
     </row>
     <row r="32">
@@ -2712,7 +2712,7 @@
         <v>633</v>
       </c>
       <c r="V32" t="n">
-        <v>28.10804843304843</v>
+        <v>28.99111111111111</v>
       </c>
     </row>
     <row r="33">
@@ -2782,7 +2782,7 @@
         <v>633</v>
       </c>
       <c r="V33" t="n">
-        <v>28.15726495726495</v>
+        <v>28.98527777777777</v>
       </c>
     </row>
     <row r="34">
@@ -2852,7 +2852,7 @@
         <v>630</v>
       </c>
       <c r="V34" t="n">
-        <v>28.20648148148148</v>
+        <v>28.97944444444444</v>
       </c>
     </row>
     <row r="35">
@@ -2922,7 +2922,7 @@
         <v>630</v>
       </c>
       <c r="V35" t="n">
-        <v>28.255698005698</v>
+        <v>28.97361111111111</v>
       </c>
     </row>
     <row r="36">
@@ -2992,7 +2992,7 @@
         <v>630</v>
       </c>
       <c r="V36" t="n">
-        <v>28.30491452991453</v>
+        <v>28.96777777777778</v>
       </c>
     </row>
     <row r="37">
@@ -3062,7 +3062,7 @@
         <v>630</v>
       </c>
       <c r="V37" t="n">
-        <v>28.35413105413105</v>
+        <v>28.96194444444444</v>
       </c>
     </row>
     <row r="38">
@@ -3132,7 +3132,7 @@
         <v>630</v>
       </c>
       <c r="V38" t="n">
-        <v>28.40334757834757</v>
+        <v>28.95611111111111</v>
       </c>
     </row>
     <row r="39">
@@ -3202,7 +3202,7 @@
         <v>630</v>
       </c>
       <c r="V39" t="n">
-        <v>28.4525641025641</v>
+        <v>28.95027777777778</v>
       </c>
     </row>
     <row r="40">
@@ -3272,7 +3272,7 @@
         <v>630</v>
       </c>
       <c r="V40" t="n">
-        <v>28.50178062678063</v>
+        <v>28.94444444444444</v>
       </c>
     </row>
     <row r="41">
@@ -3342,7 +3342,7 @@
         <v>626</v>
       </c>
       <c r="V41" t="n">
-        <v>28.55099715099715</v>
+        <v>29.07222222222222</v>
       </c>
     </row>
     <row r="42">
@@ -3412,7 +3412,7 @@
         <v>626</v>
       </c>
       <c r="V42" t="n">
-        <v>28.60021367521367</v>
+        <v>29.24166666666666</v>
       </c>
     </row>
     <row r="43">
@@ -3482,7 +3482,7 @@
         <v>623</v>
       </c>
       <c r="V43" t="n">
-        <v>28.6494301994302</v>
+        <v>29.30972222222222</v>
       </c>
     </row>
     <row r="44">
@@ -3552,7 +3552,7 @@
         <v>623</v>
       </c>
       <c r="V44" t="n">
-        <v>28.69864672364672</v>
+        <v>29.37777777777778</v>
       </c>
     </row>
     <row r="45">
@@ -3622,7 +3622,7 @@
         <v>623</v>
       </c>
       <c r="V45" t="n">
-        <v>28.74786324786325</v>
+        <v>29.19722222222222</v>
       </c>
     </row>
     <row r="46">
@@ -3692,7 +3692,7 @@
         <v>623</v>
       </c>
       <c r="V46" t="n">
-        <v>28.79707977207977</v>
+        <v>28.88888888888889</v>
       </c>
     </row>
     <row r="47">
@@ -3762,7 +3762,7 @@
         <v>623</v>
       </c>
       <c r="V47" t="n">
-        <v>28.84629629629629</v>
+        <v>28.54166666666666</v>
       </c>
     </row>
     <row r="48">
@@ -3832,7 +3832,7 @@
         <v>626</v>
       </c>
       <c r="V48" t="n">
-        <v>28.89551282051282</v>
+        <v>28.42777777777778</v>
       </c>
     </row>
     <row r="49">
@@ -3902,7 +3902,7 @@
         <v>626</v>
       </c>
       <c r="V49" t="n">
-        <v>28.94472934472934</v>
+        <v>28.31388888888889</v>
       </c>
     </row>
     <row r="50">
@@ -3972,7 +3972,7 @@
         <v>626</v>
       </c>
       <c r="V50" t="n">
-        <v>28.99394586894587</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="51">
@@ -4042,7 +4042,7 @@
         <v>626</v>
       </c>
       <c r="V51" t="n">
-        <v>29.04316239316239</v>
+        <v>28.43888888888889</v>
       </c>
     </row>
     <row r="52">
@@ -4112,7 +4112,7 @@
         <v>626</v>
       </c>
       <c r="V52" t="n">
-        <v>29.09237891737892</v>
+        <v>28.75555555555555</v>
       </c>
     </row>
     <row r="53">
@@ -4182,7 +4182,7 @@
         <v>626</v>
       </c>
       <c r="V53" t="n">
-        <v>29.14159544159544</v>
+        <v>29.01111111111111</v>
       </c>
     </row>
     <row r="54">
@@ -4252,7 +4252,7 @@
         <v>626</v>
       </c>
       <c r="V54" t="n">
-        <v>29.19081196581196</v>
+        <v>29.20555555555556</v>
       </c>
     </row>
     <row r="55">
@@ -4322,7 +4322,7 @@
         <v>635</v>
       </c>
       <c r="V55" t="n">
-        <v>29.24002849002849</v>
+        <v>29.39722222222222</v>
       </c>
     </row>
     <row r="56">
@@ -4392,7 +4392,7 @@
         <v>635</v>
       </c>
       <c r="V56" t="n">
-        <v>29.28924501424502</v>
+        <v>29.47083333333333</v>
       </c>
     </row>
     <row r="57">
@@ -4462,7 +4462,7 @@
         <v>635</v>
       </c>
       <c r="V57" t="n">
-        <v>29.33846153846154</v>
+        <v>29.54444444444444</v>
       </c>
     </row>
     <row r="58">
@@ -4532,7 +4532,7 @@
         <v>635</v>
       </c>
       <c r="V58" t="n">
-        <v>29.38767806267806</v>
+        <v>29.61805555555556</v>
       </c>
     </row>
     <row r="59">
@@ -4602,7 +4602,7 @@
         <v>624</v>
       </c>
       <c r="V59" t="n">
-        <v>29.43689458689459</v>
+        <v>29.69166666666667</v>
       </c>
     </row>
     <row r="60">
@@ -4882,7 +4882,7 @@
         <v>621</v>
       </c>
       <c r="V63" t="n">
-        <v>28.59305555555555</v>
+        <v>28.29722222222222</v>
       </c>
     </row>
     <row r="64">
@@ -4952,7 +4952,7 @@
         <v>621</v>
       </c>
       <c r="V64" t="n">
-        <v>28.51666666666667</v>
+        <v>28.21388888888889</v>
       </c>
     </row>
     <row r="65">
@@ -5022,7 +5022,7 @@
         <v>621</v>
       </c>
       <c r="V65" t="n">
-        <v>28.44027777777778</v>
+        <v>28.13055555555555</v>
       </c>
     </row>
     <row r="66">
@@ -5232,7 +5232,7 @@
         <v>621</v>
       </c>
       <c r="V68" t="n">
-        <v>28.87083333333333</v>
+        <v>29.19166666666667</v>
       </c>
     </row>
     <row r="69">
@@ -5302,7 +5302,7 @@
         <v>621</v>
       </c>
       <c r="V69" t="n">
-        <v>28.97222222222222</v>
+        <v>29.3125</v>
       </c>
     </row>
     <row r="70">
@@ -5372,7 +5372,7 @@
         <v>623</v>
       </c>
       <c r="V70" t="n">
-        <v>29.07361111111111</v>
+        <v>29.43333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -5582,7 +5582,7 @@
         <v>628</v>
       </c>
       <c r="V73" t="n">
-        <v>28.65347222222222</v>
+        <v>28.38055555555556</v>
       </c>
     </row>
     <row r="74">
@@ -5652,7 +5652,7 @@
         <v>628</v>
       </c>
       <c r="V74" t="n">
-        <v>28.51527777777778</v>
+        <v>28.2125</v>
       </c>
     </row>
     <row r="75">
@@ -5722,7 +5722,7 @@
         <v>628</v>
       </c>
       <c r="V75" t="n">
-        <v>28.37708333333333</v>
+        <v>28.04444444444444</v>
       </c>
     </row>
     <row r="76">
@@ -6002,7 +6002,7 @@
         <v>630</v>
       </c>
       <c r="V79" t="n">
-        <v>29.0192618675013</v>
+        <v>29.37777777777778</v>
       </c>
     </row>
     <row r="80">
@@ -6072,7 +6072,7 @@
         <v>630</v>
       </c>
       <c r="V80" t="n">
-        <v>29.02185706833594</v>
+        <v>29.43263888888889</v>
       </c>
     </row>
     <row r="81">
@@ -6142,7 +6142,7 @@
         <v>630</v>
       </c>
       <c r="V81" t="n">
-        <v>29.02445226917058</v>
+        <v>29.4875</v>
       </c>
     </row>
     <row r="82">
@@ -6212,7 +6212,7 @@
         <v>630</v>
       </c>
       <c r="V82" t="n">
-        <v>29.02704747000521</v>
+        <v>29.54236111111111</v>
       </c>
     </row>
     <row r="83">
@@ -6282,7 +6282,7 @@
         <v>630</v>
       </c>
       <c r="V83" t="n">
-        <v>29.02964267083985</v>
+        <v>29.59722222222222</v>
       </c>
     </row>
     <row r="84">
@@ -6352,7 +6352,7 @@
         <v>634</v>
       </c>
       <c r="V84" t="n">
-        <v>29.03223787167449</v>
+        <v>29.39166666666667</v>
       </c>
     </row>
     <row r="85">
@@ -6422,7 +6422,7 @@
         <v>634</v>
       </c>
       <c r="V85" t="n">
-        <v>29.03483307250913</v>
+        <v>29.16666666666666</v>
       </c>
     </row>
     <row r="86">
@@ -6492,7 +6492,7 @@
         <v>634</v>
       </c>
       <c r="V86" t="n">
-        <v>29.03742827334376</v>
+        <v>29.11666666666666</v>
       </c>
     </row>
     <row r="87">
@@ -6562,7 +6562,7 @@
         <v>633</v>
       </c>
       <c r="V87" t="n">
-        <v>29.0400234741784</v>
+        <v>29.06666666666666</v>
       </c>
     </row>
     <row r="88">
@@ -6632,7 +6632,7 @@
         <v>633</v>
       </c>
       <c r="V88" t="n">
-        <v>29.04261867501304</v>
+        <v>29.01666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -6702,7 +6702,7 @@
         <v>633</v>
       </c>
       <c r="V89" t="n">
-        <v>29.04521387584768</v>
+        <v>28.96666666666667</v>
       </c>
     </row>
     <row r="90">
@@ -6772,7 +6772,7 @@
         <v>633</v>
       </c>
       <c r="V90" t="n">
-        <v>29.04780907668232</v>
+        <v>29.14722222222222</v>
       </c>
     </row>
     <row r="91">
@@ -6842,7 +6842,7 @@
         <v>633</v>
       </c>
       <c r="V91" t="n">
-        <v>29.05040427751695</v>
+        <v>29.35277777777778</v>
       </c>
     </row>
     <row r="92">
@@ -6912,7 +6912,7 @@
         <v>633</v>
       </c>
       <c r="V92" t="n">
-        <v>29.05299947835159</v>
+        <v>29.43888888888889</v>
       </c>
     </row>
     <row r="93">
@@ -6982,7 +6982,7 @@
         <v>633</v>
       </c>
       <c r="V93" t="n">
-        <v>29.05559467918623</v>
+        <v>29.525</v>
       </c>
     </row>
     <row r="94">
@@ -7052,7 +7052,7 @@
         <v>633</v>
       </c>
       <c r="V94" t="n">
-        <v>29.05818988002087</v>
+        <v>29.41111111111111</v>
       </c>
     </row>
     <row r="95">
@@ -7122,7 +7122,7 @@
         <v>635</v>
       </c>
       <c r="V95" t="n">
-        <v>29.0607850808555</v>
+        <v>29.24166666666666</v>
       </c>
     </row>
     <row r="96">
@@ -7192,7 +7192,7 @@
         <v>634</v>
       </c>
       <c r="V96" t="n">
-        <v>29.06338028169014</v>
+        <v>29.13425925925926</v>
       </c>
     </row>
     <row r="97">
@@ -7262,7 +7262,7 @@
         <v>634</v>
       </c>
       <c r="V97" t="n">
-        <v>29.06597548252478</v>
+        <v>29.02685185185185</v>
       </c>
     </row>
     <row r="98">
@@ -7332,7 +7332,7 @@
         <v>634</v>
       </c>
       <c r="V98" t="n">
-        <v>29.06857068335941</v>
+        <v>28.91944444444444</v>
       </c>
     </row>
     <row r="99">
@@ -7402,7 +7402,7 @@
         <v>634</v>
       </c>
       <c r="V99" t="n">
-        <v>29.07116588419405</v>
+        <v>29.08611111111111</v>
       </c>
     </row>
     <row r="100">
@@ -7472,7 +7472,7 @@
         <v>634</v>
       </c>
       <c r="V100" t="n">
-        <v>29.07376108502869</v>
+        <v>29.36388888888889</v>
       </c>
     </row>
     <row r="101">
@@ -7542,7 +7542,7 @@
         <v>634</v>
       </c>
       <c r="V101" t="n">
-        <v>29.07635628586333</v>
+        <v>29.65833333333333</v>
       </c>
     </row>
     <row r="102">
@@ -7612,7 +7612,7 @@
         <v>634</v>
       </c>
       <c r="V102" t="n">
-        <v>29.07895148669796</v>
+        <v>29.70925925925926</v>
       </c>
     </row>
     <row r="103">
@@ -7682,7 +7682,7 @@
         <v>633</v>
       </c>
       <c r="V103" t="n">
-        <v>29.0815466875326</v>
+        <v>29.76018518518518</v>
       </c>
     </row>
     <row r="104">
@@ -7752,7 +7752,7 @@
         <v>633</v>
       </c>
       <c r="V104" t="n">
-        <v>29.08414188836724</v>
+        <v>29.81111111111111</v>
       </c>
     </row>
     <row r="105">
@@ -7822,7 +7822,7 @@
         <v>633</v>
       </c>
       <c r="V105" t="n">
-        <v>29.08673708920188</v>
+        <v>29.58611111111111</v>
       </c>
     </row>
     <row r="106">
@@ -7892,7 +7892,7 @@
         <v>633</v>
       </c>
       <c r="V106" t="n">
-        <v>29.08933229003651</v>
+        <v>29.36666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -7962,7 +7962,7 @@
         <v>633</v>
       </c>
       <c r="V107" t="n">
-        <v>29.09192749087115</v>
+        <v>29.29351851851852</v>
       </c>
     </row>
     <row r="108">
@@ -8032,7 +8032,7 @@
         <v>635</v>
       </c>
       <c r="V108" t="n">
-        <v>29.09452269170579</v>
+        <v>29.22037037037037</v>
       </c>
     </row>
     <row r="109">
@@ -8102,7 +8102,7 @@
         <v>635</v>
       </c>
       <c r="V109" t="n">
-        <v>29.09711789254043</v>
+        <v>29.14722222222222</v>
       </c>
     </row>
     <row r="110">
@@ -8172,7 +8172,7 @@
         <v>635</v>
       </c>
       <c r="V110" t="n">
-        <v>29.09971309337507</v>
+        <v>29.34444444444444</v>
       </c>
     </row>
     <row r="111">
@@ -8242,7 +8242,7 @@
         <v>634</v>
       </c>
       <c r="V111" t="n">
-        <v>29.1023082942097</v>
+        <v>29.55555555555556</v>
       </c>
     </row>
     <row r="112">
@@ -8312,7 +8312,7 @@
         <v>634</v>
       </c>
       <c r="V112" t="n">
-        <v>29.10490349504434</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="113">
@@ -8382,7 +8382,7 @@
         <v>634</v>
       </c>
       <c r="V113" t="n">
-        <v>29.10749869587898</v>
+        <v>29.81388888888889</v>
       </c>
     </row>
     <row r="114">
@@ -8452,7 +8452,7 @@
         <v>634</v>
       </c>
       <c r="V114" t="n">
-        <v>29.11009389671361</v>
+        <v>29.87777777777778</v>
       </c>
     </row>
     <row r="115">
@@ -8522,7 +8522,7 @@
         <v>634</v>
       </c>
       <c r="V115" t="n">
-        <v>29.11268909754825</v>
+        <v>29.75555555555556</v>
       </c>
     </row>
     <row r="116">
@@ -8592,7 +8592,7 @@
         <v>634</v>
       </c>
       <c r="V116" t="n">
-        <v>29.11528429838289</v>
+        <v>29.7025462962963</v>
       </c>
     </row>
     <row r="117">
@@ -8662,7 +8662,7 @@
         <v>634</v>
       </c>
       <c r="V117" t="n">
-        <v>29.11787949921753</v>
+        <v>29.64953703703704</v>
       </c>
     </row>
     <row r="118">
@@ -8732,7 +8732,7 @@
         <v>632</v>
       </c>
       <c r="V118" t="n">
-        <v>29.12047470005216</v>
+        <v>29.59652777777778</v>
       </c>
     </row>
     <row r="119">
@@ -8802,7 +8802,7 @@
         <v>632</v>
       </c>
       <c r="V119" t="n">
-        <v>29.1230699008868</v>
+        <v>29.54351851851852</v>
       </c>
     </row>
     <row r="120">
@@ -8872,7 +8872,7 @@
         <v>632</v>
       </c>
       <c r="V120" t="n">
-        <v>29.12566510172144</v>
+        <v>29.49050925925926</v>
       </c>
     </row>
     <row r="121">
@@ -8942,7 +8942,7 @@
         <v>632</v>
       </c>
       <c r="V121" t="n">
-        <v>29.12826030255608</v>
+        <v>29.4375</v>
       </c>
     </row>
     <row r="122">
@@ -9012,7 +9012,7 @@
         <v>634</v>
       </c>
       <c r="V122" t="n">
-        <v>29.13085550339071</v>
+        <v>29.38449074074074</v>
       </c>
     </row>
     <row r="123">
@@ -9082,7 +9082,7 @@
         <v>634</v>
       </c>
       <c r="V123" t="n">
-        <v>29.13345070422535</v>
+        <v>29.33148148148148</v>
       </c>
     </row>
     <row r="124">
@@ -9152,7 +9152,7 @@
         <v>634</v>
       </c>
       <c r="V124" t="n">
-        <v>29.13604590505999</v>
+        <v>29.27847222222222</v>
       </c>
     </row>
     <row r="125">
@@ -9222,7 +9222,7 @@
         <v>634</v>
       </c>
       <c r="V125" t="n">
-        <v>29.13864110589462</v>
+        <v>29.22546296296296</v>
       </c>
     </row>
     <row r="126">
@@ -9292,7 +9292,7 @@
         <v>631</v>
       </c>
       <c r="V126" t="n">
-        <v>29.14123630672926</v>
+        <v>29.1724537037037</v>
       </c>
     </row>
     <row r="127">
@@ -9362,7 +9362,7 @@
         <v>631</v>
       </c>
       <c r="V127" t="n">
-        <v>29.1438315075639</v>
+        <v>29.11944444444444</v>
       </c>
     </row>
     <row r="128">
@@ -9432,7 +9432,7 @@
         <v>631</v>
       </c>
       <c r="V128" t="n">
-        <v>29.14642670839854</v>
+        <v>29.26666666666667</v>
       </c>
     </row>
     <row r="129">
@@ -9502,7 +9502,7 @@
         <v>631</v>
       </c>
       <c r="V129" t="n">
-        <v>29.14902190923318</v>
+        <v>29.41944444444444</v>
       </c>
     </row>
     <row r="130">
@@ -9572,7 +9572,7 @@
         <v>631</v>
       </c>
       <c r="V130" t="n">
-        <v>29.15161711006781</v>
+        <v>29.5037037037037</v>
       </c>
     </row>
     <row r="131">
@@ -9642,7 +9642,7 @@
         <v>631</v>
       </c>
       <c r="V131" t="n">
-        <v>29.15421231090245</v>
+        <v>29.58796296296296</v>
       </c>
     </row>
     <row r="132">
@@ -9712,7 +9712,7 @@
         <v>629</v>
       </c>
       <c r="V132" t="n">
-        <v>29.15680751173709</v>
+        <v>29.67222222222222</v>
       </c>
     </row>
     <row r="133">
@@ -9782,7 +9782,7 @@
         <v>629</v>
       </c>
       <c r="V133" t="n">
-        <v>29.15940271257173</v>
+        <v>29.49166666666667</v>
       </c>
     </row>
     <row r="134">
@@ -9852,7 +9852,7 @@
         <v>629</v>
       </c>
       <c r="V134" t="n">
-        <v>29.16199791340636</v>
+        <v>29.24444444444444</v>
       </c>
     </row>
     <row r="135">
@@ -9922,7 +9922,7 @@
         <v>629</v>
       </c>
       <c r="V135" t="n">
-        <v>29.164593114241</v>
+        <v>28.975</v>
       </c>
     </row>
     <row r="136">
@@ -9992,7 +9992,7 @@
         <v>629</v>
       </c>
       <c r="V136" t="n">
-        <v>29.16718831507564</v>
+        <v>28.88055555555555</v>
       </c>
     </row>
     <row r="137">
@@ -10062,7 +10062,7 @@
         <v>629</v>
       </c>
       <c r="V137" t="n">
-        <v>29.16978351591028</v>
+        <v>28.78611111111111</v>
       </c>
     </row>
     <row r="138">
@@ -10132,7 +10132,7 @@
         <v>629</v>
       </c>
       <c r="V138" t="n">
-        <v>29.17237871674491</v>
+        <v>28.88888888888889</v>
       </c>
     </row>
     <row r="139">
@@ -10202,7 +10202,7 @@
         <v>630</v>
       </c>
       <c r="V139" t="n">
-        <v>29.17497391757955</v>
+        <v>29.11388888888889</v>
       </c>
     </row>
     <row r="140">
@@ -10272,7 +10272,7 @@
         <v>630</v>
       </c>
       <c r="V140" t="n">
-        <v>29.17756911841419</v>
+        <v>29.38055555555555</v>
       </c>
     </row>
     <row r="141">
@@ -10342,7 +10342,7 @@
         <v>630</v>
       </c>
       <c r="V141" t="n">
-        <v>29.18016431924882</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="142">
@@ -10412,7 +10412,7 @@
         <v>630</v>
       </c>
       <c r="V142" t="n">
-        <v>29.18275952008346</v>
+        <v>29.70277777777778</v>
       </c>
     </row>
     <row r="143">
@@ -10482,7 +10482,7 @@
         <v>630</v>
       </c>
       <c r="V143" t="n">
-        <v>29.1853547209181</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="144">
@@ -10552,7 +10552,7 @@
         <v>630</v>
       </c>
       <c r="V144" t="n">
-        <v>29.18794992175274</v>
+        <v>29.35833333333333</v>
       </c>
     </row>
     <row r="145">
@@ -10622,7 +10622,7 @@
         <v>628</v>
       </c>
       <c r="V145" t="n">
-        <v>29.19054512258737</v>
+        <v>29.12222222222222</v>
       </c>
     </row>
     <row r="146">
@@ -10692,7 +10692,7 @@
         <v>628</v>
       </c>
       <c r="V146" t="n">
-        <v>29.19314032342201</v>
+        <v>29.02777777777778</v>
       </c>
     </row>
     <row r="147">
@@ -10762,7 +10762,7 @@
         <v>628</v>
       </c>
       <c r="V147" t="n">
-        <v>29.19573552425665</v>
+        <v>28.93333333333333</v>
       </c>
     </row>
     <row r="148">
@@ -10832,7 +10832,7 @@
         <v>628</v>
       </c>
       <c r="V148" t="n">
-        <v>29.19833072509129</v>
+        <v>29.06388888888889</v>
       </c>
     </row>
     <row r="149">
@@ -10902,7 +10902,7 @@
         <v>628</v>
       </c>
       <c r="V149" t="n">
-        <v>29.20092592592593</v>
+        <v>29.31944444444444</v>
       </c>
     </row>
     <row r="150">
@@ -10972,7 +10972,7 @@
         <v>628</v>
       </c>
       <c r="V150" t="n">
-        <v>29.20352112676056</v>
+        <v>29.57777777777778</v>
       </c>
     </row>
     <row r="151">
@@ -11042,7 +11042,7 @@
         <v>629</v>
       </c>
       <c r="V151" t="n">
-        <v>29.2061163275952</v>
+        <v>29.66111111111111</v>
       </c>
     </row>
     <row r="152">
@@ -11112,7 +11112,7 @@
         <v>629</v>
       </c>
       <c r="V152" t="n">
-        <v>29.20871152842984</v>
+        <v>29.74444444444444</v>
       </c>
     </row>
     <row r="153">
@@ -11182,7 +11182,7 @@
         <v>629</v>
       </c>
       <c r="V153" t="n">
-        <v>29.21130672926448</v>
+        <v>29.58055555555555</v>
       </c>
     </row>
     <row r="154">
@@ -11252,7 +11252,7 @@
         <v>629</v>
       </c>
       <c r="V154" t="n">
-        <v>29.21390193009911</v>
+        <v>29.35277777777778</v>
       </c>
     </row>
     <row r="155">
@@ -11322,7 +11322,7 @@
         <v>629</v>
       </c>
       <c r="V155" t="n">
-        <v>29.21649713093375</v>
+        <v>29.25555555555556</v>
       </c>
     </row>
     <row r="156">
@@ -11392,7 +11392,7 @@
         <v>629</v>
       </c>
       <c r="V156" t="n">
-        <v>29.21909233176839</v>
+        <v>29.15833333333333</v>
       </c>
     </row>
     <row r="157">
@@ -11462,7 +11462,7 @@
         <v>629</v>
       </c>
       <c r="V157" t="n">
-        <v>29.22168753260302</v>
+        <v>29.06111111111111</v>
       </c>
     </row>
     <row r="158">
@@ -11532,7 +11532,7 @@
         <v>627</v>
       </c>
       <c r="V158" t="n">
-        <v>29.22428273343766</v>
+        <v>29.23055555555555</v>
       </c>
     </row>
     <row r="159">
@@ -11602,7 +11602,7 @@
         <v>627</v>
       </c>
       <c r="V159" t="n">
-        <v>29.2268779342723</v>
+        <v>29.45555555555556</v>
       </c>
     </row>
     <row r="160">
@@ -11672,7 +11672,7 @@
         <v>627</v>
       </c>
       <c r="V160" t="n">
-        <v>29.22947313510694</v>
+        <v>29.72222222222222</v>
       </c>
     </row>
     <row r="161">
@@ -11742,7 +11742,7 @@
         <v>627</v>
       </c>
       <c r="V161" t="n">
-        <v>29.23206833594157</v>
+        <v>29.95555555555556</v>
       </c>
     </row>
     <row r="162">
@@ -11812,7 +11812,7 @@
         <v>627</v>
       </c>
       <c r="V162" t="n">
-        <v>29.23466353677621</v>
+        <v>30.01944444444445</v>
       </c>
     </row>
     <row r="163">
@@ -11882,7 +11882,7 @@
         <v>627</v>
       </c>
       <c r="V163" t="n">
-        <v>29.23725873761085</v>
+        <v>30.08333333333333</v>
       </c>
     </row>
     <row r="164">
@@ -11952,7 +11952,7 @@
         <v>629</v>
       </c>
       <c r="V164" t="n">
-        <v>29.23985393844548</v>
+        <v>30.14722222222222</v>
       </c>
     </row>
     <row r="165">
@@ -12022,7 +12022,7 @@
         <v>629</v>
       </c>
       <c r="V165" t="n">
-        <v>29.24244913928012</v>
+        <v>29.98333333333333</v>
       </c>
     </row>
     <row r="166">
@@ -12092,7 +12092,7 @@
         <v>629</v>
       </c>
       <c r="V166" t="n">
-        <v>29.24504434011476</v>
+        <v>29.76944444444445</v>
       </c>
     </row>
     <row r="167">
@@ -12162,7 +12162,7 @@
         <v>629</v>
       </c>
       <c r="V167" t="n">
-        <v>29.2476395409494</v>
+        <v>29.67037037037037</v>
       </c>
     </row>
     <row r="168">
@@ -12232,7 +12232,7 @@
         <v>629</v>
       </c>
       <c r="V168" t="n">
-        <v>29.25023474178404</v>
+        <v>29.5712962962963</v>
       </c>
     </row>
     <row r="169">
@@ -12302,7 +12302,7 @@
         <v>629</v>
       </c>
       <c r="V169" t="n">
-        <v>29.25282994261867</v>
+        <v>29.47222222222222</v>
       </c>
     </row>
     <row r="170">
@@ -12372,7 +12372,7 @@
         <v>630</v>
       </c>
       <c r="V170" t="n">
-        <v>29.25542514345331</v>
+        <v>29.60277777777777</v>
       </c>
     </row>
     <row r="171">
@@ -12442,7 +12442,7 @@
         <v>630</v>
       </c>
       <c r="V171" t="n">
-        <v>29.25802034428795</v>
+        <v>29.73888888888889</v>
       </c>
     </row>
     <row r="172">
@@ -12512,7 +12512,7 @@
         <v>630</v>
       </c>
       <c r="V172" t="n">
-        <v>29.26061554512259</v>
+        <v>29.79074074074074</v>
       </c>
     </row>
     <row r="173">
@@ -12582,7 +12582,7 @@
         <v>630</v>
       </c>
       <c r="V173" t="n">
-        <v>29.26321074595722</v>
+        <v>29.84259259259259</v>
       </c>
     </row>
     <row r="174">
@@ -12652,7 +12652,7 @@
         <v>630</v>
       </c>
       <c r="V174" t="n">
-        <v>29.26580594679186</v>
+        <v>29.89444444444445</v>
       </c>
     </row>
     <row r="175">
@@ -12722,7 +12722,7 @@
         <v>630</v>
       </c>
       <c r="V175" t="n">
-        <v>29.2684011476265</v>
+        <v>29.73333333333333</v>
       </c>
     </row>
     <row r="176">
@@ -12792,7 +12792,7 @@
         <v>630</v>
       </c>
       <c r="V176" t="n">
-        <v>29.27099634846114</v>
+        <v>29.63703703703704</v>
       </c>
     </row>
     <row r="177">
@@ -12862,7 +12862,7 @@
         <v>629</v>
       </c>
       <c r="V177" t="n">
-        <v>29.27359154929577</v>
+        <v>29.54074074074074</v>
       </c>
     </row>
     <row r="178">
@@ -12932,7 +12932,7 @@
         <v>629</v>
       </c>
       <c r="V178" t="n">
-        <v>29.27618675013041</v>
+        <v>29.44444444444444</v>
       </c>
     </row>
     <row r="179">
@@ -13002,7 +13002,7 @@
         <v>629</v>
       </c>
       <c r="V179" t="n">
-        <v>29.27878195096505</v>
+        <v>29.575</v>
       </c>
     </row>
     <row r="180">
@@ -13072,7 +13072,7 @@
         <v>629</v>
       </c>
       <c r="V180" t="n">
-        <v>29.28137715179968</v>
+        <v>29.74444444444444</v>
       </c>
     </row>
     <row r="181">
@@ -13142,7 +13142,7 @@
         <v>629</v>
       </c>
       <c r="V181" t="n">
-        <v>29.28397235263432</v>
+        <v>29.91388888888889</v>
       </c>
     </row>
     <row r="182">
@@ -13212,7 +13212,7 @@
         <v>629</v>
       </c>
       <c r="V182" t="n">
-        <v>29.28656755346896</v>
+        <v>29.97777777777778</v>
       </c>
     </row>
     <row r="183">
@@ -13282,7 +13282,7 @@
         <v>629</v>
       </c>
       <c r="V183" t="n">
-        <v>29.2891627543036</v>
+        <v>30.04166666666667</v>
       </c>
     </row>
     <row r="184">
@@ -13352,7 +13352,7 @@
         <v>629</v>
       </c>
       <c r="V184" t="n">
-        <v>29.29175795513823</v>
+        <v>29.93333333333333</v>
       </c>
     </row>
     <row r="185">
@@ -13422,7 +13422,7 @@
         <v>630</v>
       </c>
       <c r="V185" t="n">
-        <v>29.29435315597287</v>
+        <v>29.71666666666667</v>
       </c>
     </row>
     <row r="186">
@@ -13492,7 +13492,7 @@
         <v>632</v>
       </c>
       <c r="V186" t="n">
-        <v>29.29694835680751</v>
+        <v>29.61666666666667</v>
       </c>
     </row>
     <row r="187">
@@ -13562,7 +13562,7 @@
         <v>632</v>
       </c>
       <c r="V187" t="n">
-        <v>29.29954355764215</v>
+        <v>29.51666666666667</v>
       </c>
     </row>
     <row r="188">
@@ -13632,7 +13632,7 @@
         <v>632</v>
       </c>
       <c r="V188" t="n">
-        <v>29.30213875847679</v>
+        <v>29.41666666666667</v>
       </c>
     </row>
     <row r="189">
@@ -13702,7 +13702,7 @@
         <v>632</v>
       </c>
       <c r="V189" t="n">
-        <v>29.30473395931142</v>
+        <v>29.57777777777778</v>
       </c>
     </row>
     <row r="190">
@@ -13772,7 +13772,7 @@
         <v>632</v>
       </c>
       <c r="V190" t="n">
-        <v>29.30732916014606</v>
+        <v>29.77222222222222</v>
       </c>
     </row>
     <row r="191">
@@ -13842,7 +13842,7 @@
         <v>632</v>
       </c>
       <c r="V191" t="n">
-        <v>29.3099243609807</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="192">
@@ -13912,7 +13912,7 @@
         <v>629</v>
       </c>
       <c r="V192" t="n">
-        <v>29.31251956181534</v>
+        <v>30.03055555555555</v>
       </c>
     </row>
     <row r="193">
@@ -13982,7 +13982,7 @@
         <v>629</v>
       </c>
       <c r="V193" t="n">
-        <v>29.31511476264997</v>
+        <v>30.11111111111111</v>
       </c>
     </row>
     <row r="194">
@@ -14052,7 +14052,7 @@
         <v>629</v>
       </c>
       <c r="V194" t="n">
-        <v>29.31770996348461</v>
+        <v>29.96666666666667</v>
       </c>
     </row>
     <row r="195">
@@ -14122,7 +14122,7 @@
         <v>629</v>
       </c>
       <c r="V195" t="n">
-        <v>29.32030516431925</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="196">
@@ -14192,7 +14192,7 @@
         <v>629</v>
       </c>
       <c r="V196" t="n">
-        <v>29.32290036515388</v>
+        <v>29.62708333333333</v>
       </c>
     </row>
     <row r="197">
@@ -14262,7 +14262,7 @@
         <v>629</v>
       </c>
       <c r="V197" t="n">
-        <v>29.32549556598852</v>
+        <v>29.55416666666667</v>
       </c>
     </row>
     <row r="198">
@@ -14332,7 +14332,7 @@
         <v>629</v>
       </c>
       <c r="V198" t="n">
-        <v>29.32809076682316</v>
+        <v>29.48125</v>
       </c>
     </row>
     <row r="199">
@@ -14402,7 +14402,7 @@
         <v>629</v>
       </c>
       <c r="V199" t="n">
-        <v>29.3306859676578</v>
+        <v>29.40833333333333</v>
       </c>
     </row>
     <row r="200">
@@ -14472,7 +14472,7 @@
         <v>627</v>
       </c>
       <c r="V200" t="n">
-        <v>29.33328116849243</v>
+        <v>29.57222222222222</v>
       </c>
     </row>
     <row r="201">
@@ -14542,7 +14542,7 @@
         <v>626</v>
       </c>
       <c r="V201" t="n">
-        <v>29.33587636932707</v>
+        <v>29.77777777777778</v>
       </c>
     </row>
     <row r="202">
@@ -14612,7 +14612,7 @@
         <v>626</v>
       </c>
       <c r="V202" t="n">
-        <v>29.33847157016171</v>
+        <v>29.85277777777778</v>
       </c>
     </row>
     <row r="203">
@@ -14682,7 +14682,7 @@
         <v>626</v>
       </c>
       <c r="V203" t="n">
-        <v>29.34106677099635</v>
+        <v>29.92777777777778</v>
       </c>
     </row>
     <row r="204">
@@ -14752,7 +14752,7 @@
         <v>626</v>
       </c>
       <c r="V204" t="n">
-        <v>29.34366197183098</v>
+        <v>29.79722222222222</v>
       </c>
     </row>
     <row r="205">
@@ -14822,7 +14822,7 @@
         <v>626</v>
       </c>
       <c r="V205" t="n">
-        <v>29.34625717266562</v>
+        <v>29.58055555555555</v>
       </c>
     </row>
     <row r="206">
@@ -14892,7 +14892,7 @@
         <v>630</v>
       </c>
       <c r="V206" t="n">
-        <v>29.34885237350026</v>
+        <v>29.36388888888889</v>
       </c>
     </row>
     <row r="207">
@@ -14962,7 +14962,7 @@
         <v>630</v>
       </c>
       <c r="V207" t="n">
-        <v>29.3514475743349</v>
+        <v>29.29444444444444</v>
       </c>
     </row>
     <row r="208">
@@ -15032,7 +15032,7 @@
         <v>630</v>
       </c>
       <c r="V208" t="n">
-        <v>29.35404277516954</v>
+        <v>29.225</v>
       </c>
     </row>
     <row r="209">
@@ -15102,7 +15102,7 @@
         <v>630</v>
       </c>
       <c r="V209" t="n">
-        <v>29.35663797600417</v>
+        <v>29.32777777777778</v>
       </c>
     </row>
     <row r="210">
@@ -15172,7 +15172,7 @@
         <v>630</v>
       </c>
       <c r="V210" t="n">
-        <v>29.35923317683881</v>
+        <v>29.50277777777778</v>
       </c>
     </row>
     <row r="211">
@@ -15242,7 +15242,7 @@
         <v>630</v>
       </c>
       <c r="V211" t="n">
-        <v>29.36182837767345</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="212">
@@ -15312,7 +15312,7 @@
         <v>630</v>
       </c>
       <c r="V212" t="n">
-        <v>29.36442357850808</v>
+        <v>29.75388888888889</v>
       </c>
     </row>
     <row r="213">
@@ -15382,7 +15382,7 @@
         <v>629</v>
       </c>
       <c r="V213" t="n">
-        <v>29.36701877934272</v>
+        <v>29.80777777777778</v>
       </c>
     </row>
     <row r="214">
@@ -15452,7 +15452,7 @@
         <v>629</v>
       </c>
       <c r="V214" t="n">
-        <v>29.36961398017736</v>
+        <v>29.86166666666667</v>
       </c>
     </row>
     <row r="215">
@@ -15522,7 +15522,7 @@
         <v>629</v>
       </c>
       <c r="V215" t="n">
-        <v>29.372209181012</v>
+        <v>29.91555555555556</v>
       </c>
     </row>
     <row r="216">
@@ -15592,7 +15592,7 @@
         <v>629</v>
       </c>
       <c r="V216" t="n">
-        <v>29.37480438184663</v>
+        <v>29.96944444444444</v>
       </c>
     </row>
     <row r="217">
@@ -15662,7 +15662,7 @@
         <v>629</v>
       </c>
       <c r="V217" t="n">
-        <v>29.37739958268127</v>
+        <v>29.76666666666667</v>
       </c>
     </row>
     <row r="218">
@@ -15732,7 +15732,7 @@
         <v>629</v>
       </c>
       <c r="V218" t="n">
-        <v>29.37999478351591</v>
+        <v>29.53888888888889</v>
       </c>
     </row>
     <row r="219">
@@ -15802,7 +15802,7 @@
         <v>632</v>
       </c>
       <c r="V219" t="n">
-        <v>29.38258998435055</v>
+        <v>29.32777777777778</v>
       </c>
     </row>
     <row r="220">
@@ -15872,7 +15872,7 @@
         <v>632</v>
       </c>
       <c r="V220" t="n">
-        <v>29.38518518518518</v>
+        <v>29.25416666666666</v>
       </c>
     </row>
     <row r="221">
@@ -15942,7 +15942,7 @@
         <v>632</v>
       </c>
       <c r="V221" t="n">
-        <v>29.38778038601982</v>
+        <v>29.18055555555555</v>
       </c>
     </row>
     <row r="222">
@@ -16012,7 +16012,7 @@
         <v>632</v>
       </c>
       <c r="V222" t="n">
-        <v>29.39037558685446</v>
+        <v>29.28888888888889</v>
       </c>
     </row>
     <row r="223">
@@ -16082,7 +16082,7 @@
         <v>632</v>
       </c>
       <c r="V223" t="n">
-        <v>29.39297078768909</v>
+        <v>29.49722222222222</v>
       </c>
     </row>
     <row r="224">
@@ -16152,7 +16152,7 @@
         <v>632</v>
       </c>
       <c r="V224" t="n">
-        <v>29.39556598852374</v>
+        <v>29.75555555555556</v>
       </c>
     </row>
     <row r="225">
@@ -16222,7 +16222,7 @@
         <v>633</v>
       </c>
       <c r="V225" t="n">
-        <v>29.39816118935837</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="226">
@@ -16292,7 +16292,7 @@
         <v>633</v>
       </c>
       <c r="V226" t="n">
-        <v>29.40075639019301</v>
+        <v>29.94444444444444</v>
       </c>
     </row>
     <row r="227">
@@ -16362,7 +16362,7 @@
         <v>633</v>
       </c>
       <c r="V227" t="n">
-        <v>29.40335159102765</v>
+        <v>30.03888888888889</v>
       </c>
     </row>
     <row r="228">
@@ -16432,7 +16432,7 @@
         <v>633</v>
       </c>
       <c r="V228" t="n">
-        <v>29.40594679186228</v>
+        <v>30.13333333333333</v>
       </c>
     </row>
     <row r="229">
@@ -16502,7 +16502,7 @@
         <v>633</v>
       </c>
       <c r="V229" t="n">
-        <v>29.40854199269692</v>
+        <v>29.92222222222222</v>
       </c>
     </row>
     <row r="230">
@@ -16572,7 +16572,7 @@
         <v>632</v>
       </c>
       <c r="V230" t="n">
-        <v>29.41113719353156</v>
+        <v>29.675</v>
       </c>
     </row>
     <row r="231">
@@ -16642,7 +16642,7 @@
         <v>630</v>
       </c>
       <c r="V231" t="n">
-        <v>29.4137323943662</v>
+        <v>29.45277777777778</v>
       </c>
     </row>
     <row r="232">
@@ -16712,7 +16712,7 @@
         <v>630</v>
       </c>
       <c r="V232" t="n">
-        <v>29.41632759520083</v>
+        <v>29.36805555555555</v>
       </c>
     </row>
     <row r="233">
@@ -16782,7 +16782,7 @@
         <v>630</v>
       </c>
       <c r="V233" t="n">
-        <v>29.41892279603547</v>
+        <v>29.28333333333333</v>
       </c>
     </row>
     <row r="234">
@@ -16852,7 +16852,7 @@
         <v>630</v>
       </c>
       <c r="V234" t="n">
-        <v>29.42151799687011</v>
+        <v>29.45833333333333</v>
       </c>
     </row>
     <row r="235">
@@ -16922,7 +16922,7 @@
         <v>630</v>
       </c>
       <c r="V235" t="n">
-        <v>29.42411319770475</v>
+        <v>29.69444444444445</v>
       </c>
     </row>
     <row r="236">
@@ -16992,7 +16992,7 @@
         <v>630</v>
       </c>
       <c r="V236" t="n">
-        <v>29.42670839853938</v>
+        <v>29.7962962962963</v>
       </c>
     </row>
     <row r="237">
@@ -17062,7 +17062,7 @@
         <v>632</v>
       </c>
       <c r="V237" t="n">
-        <v>29.42930359937402</v>
+        <v>29.89814814814815</v>
       </c>
     </row>
     <row r="238">
@@ -17132,7 +17132,7 @@
         <v>632</v>
       </c>
       <c r="V238" t="n">
-        <v>29.43189880020866</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239">
@@ -17202,7 +17202,7 @@
         <v>629</v>
       </c>
       <c r="V239" t="n">
-        <v>29.43449400104329</v>
+        <v>29.83055555555556</v>
       </c>
     </row>
     <row r="240">
@@ -17272,7 +17272,7 @@
         <v>629</v>
       </c>
       <c r="V240" t="n">
-        <v>29.43708920187793</v>
+        <v>29.65</v>
       </c>
     </row>
     <row r="241">
@@ -17342,7 +17342,7 @@
         <v>629</v>
       </c>
       <c r="V241" t="n">
-        <v>29.43968440271257</v>
+        <v>29.54722222222222</v>
       </c>
     </row>
     <row r="242">
@@ -17412,7 +17412,7 @@
         <v>629</v>
       </c>
       <c r="V242" t="n">
-        <v>29.44227960354721</v>
+        <v>29.44444444444444</v>
       </c>
     </row>
     <row r="243">
@@ -17482,7 +17482,7 @@
         <v>628</v>
       </c>
       <c r="V243" t="n">
-        <v>29.44487480438185</v>
+        <v>29.56666666666667</v>
       </c>
     </row>
     <row r="244">
@@ -17552,7 +17552,7 @@
         <v>628</v>
       </c>
       <c r="V244" t="n">
-        <v>29.44747000521648</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="245">
@@ -17622,7 +17622,7 @@
         <v>628</v>
       </c>
       <c r="V245" t="n">
-        <v>29.45006520605112</v>
+        <v>30.04722222222222</v>
       </c>
     </row>
     <row r="246">
@@ -17692,7 +17692,7 @@
         <v>630</v>
       </c>
       <c r="V246" t="n">
-        <v>29.45266040688576</v>
+        <v>30.14861111111111</v>
       </c>
     </row>
     <row r="247">
@@ -17762,7 +17762,7 @@
         <v>630</v>
       </c>
       <c r="V247" t="n">
-        <v>29.4552556077204</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="248">
@@ -17832,7 +17832,7 @@
         <v>630</v>
       </c>
       <c r="V248" t="n">
-        <v>29.45785080855503</v>
+        <v>30.13055555555555</v>
       </c>
     </row>
     <row r="249">
@@ -17902,7 +17902,7 @@
         <v>630</v>
       </c>
       <c r="V249" t="n">
-        <v>29.46044600938967</v>
+        <v>29.88333333333333</v>
       </c>
     </row>
     <row r="250">
@@ -17972,7 +17972,7 @@
         <v>630</v>
       </c>
       <c r="V250" t="n">
-        <v>29.46304121022431</v>
+        <v>29.63055555555556</v>
       </c>
     </row>
     <row r="251">
@@ -18042,7 +18042,7 @@
         <v>630</v>
       </c>
       <c r="V251" t="n">
-        <v>29.46563641105895</v>
+        <v>29.52083333333333</v>
       </c>
     </row>
     <row r="252">
@@ -18112,7 +18112,7 @@
         <v>630</v>
       </c>
       <c r="V252" t="n">
-        <v>29.46823161189358</v>
+        <v>29.41111111111111</v>
       </c>
     </row>
     <row r="253">
@@ -18182,7 +18182,7 @@
         <v>630</v>
       </c>
       <c r="V253" t="n">
-        <v>29.47082681272822</v>
+        <v>29.53055555555556</v>
       </c>
     </row>
     <row r="254">
@@ -18252,7 +18252,7 @@
         <v>630</v>
       </c>
       <c r="V254" t="n">
-        <v>29.47342201356286</v>
+        <v>29.73333333333333</v>
       </c>
     </row>
     <row r="255">
@@ -18322,7 +18322,7 @@
         <v>630</v>
       </c>
       <c r="V255" t="n">
-        <v>29.47601721439749</v>
+        <v>29.975</v>
       </c>
     </row>
     <row r="256">
@@ -18392,7 +18392,7 @@
         <v>630</v>
       </c>
       <c r="V256" t="n">
-        <v>29.47861241523213</v>
+        <v>30.06388888888889</v>
       </c>
     </row>
     <row r="257">
@@ -18462,7 +18462,7 @@
         <v>630</v>
       </c>
       <c r="V257" t="n">
-        <v>29.48120761606677</v>
+        <v>30.15277777777778</v>
       </c>
     </row>
     <row r="258">
@@ -18532,7 +18532,7 @@
         <v>630</v>
       </c>
       <c r="V258" t="n">
-        <v>29.48380281690141</v>
+        <v>29.94166666666667</v>
       </c>
     </row>
     <row r="259">
@@ -18602,7 +18602,7 @@
         <v>630</v>
       </c>
       <c r="V259" t="n">
-        <v>29.48639801773604</v>
+        <v>29.62777777777778</v>
       </c>
     </row>
     <row r="260">
@@ -18672,7 +18672,7 @@
         <v>630</v>
       </c>
       <c r="V260" t="n">
-        <v>29.48899321857068</v>
+        <v>29.32222222222222</v>
       </c>
     </row>
     <row r="261">
@@ -18742,7 +18742,7 @@
         <v>630</v>
       </c>
       <c r="V261" t="n">
-        <v>29.49158841940532</v>
+        <v>29.21666666666667</v>
       </c>
     </row>
     <row r="262">
@@ -18812,7 +18812,7 @@
         <v>628</v>
       </c>
       <c r="V262" t="n">
-        <v>29.49418362023996</v>
+        <v>29.11111111111111</v>
       </c>
     </row>
     <row r="263">
@@ -18882,7 +18882,7 @@
         <v>628</v>
       </c>
       <c r="V263" t="n">
-        <v>29.4967788210746</v>
+        <v>29.28055555555556</v>
       </c>
     </row>
     <row r="264">
@@ -18952,7 +18952,7 @@
         <v>628</v>
       </c>
       <c r="V264" t="n">
-        <v>29.49937402190923</v>
+        <v>29.56666666666667</v>
       </c>
     </row>
     <row r="265">
@@ -19022,7 +19022,7 @@
         <v>628</v>
       </c>
       <c r="V265" t="n">
-        <v>29.50196922274387</v>
+        <v>29.83055555555556</v>
       </c>
     </row>
     <row r="266">
@@ -19092,7 +19092,7 @@
         <v>628</v>
       </c>
       <c r="V266" t="n">
-        <v>29.50456442357851</v>
+        <v>29.90416666666667</v>
       </c>
     </row>
     <row r="267">
@@ -19162,7 +19162,7 @@
         <v>628</v>
       </c>
       <c r="V267" t="n">
-        <v>29.50715962441314</v>
+        <v>29.97777777777778</v>
       </c>
     </row>
     <row r="268">
@@ -19232,7 +19232,7 @@
         <v>626</v>
       </c>
       <c r="V268" t="n">
-        <v>29.50975482524778</v>
+        <v>29.77222222222222</v>
       </c>
     </row>
     <row r="269">
@@ -19302,7 +19302,7 @@
         <v>626</v>
       </c>
       <c r="V269" t="n">
-        <v>29.51235002608242</v>
+        <v>29.49166666666667</v>
       </c>
     </row>
     <row r="270">
@@ -19372,7 +19372,7 @@
         <v>626</v>
       </c>
       <c r="V270" t="n">
-        <v>29.51494522691706</v>
+        <v>29.26388888888889</v>
       </c>
     </row>
     <row r="271">
@@ -19442,7 +19442,7 @@
         <v>626</v>
       </c>
       <c r="V271" t="n">
-        <v>29.51754042775169</v>
+        <v>29.15555555555555</v>
       </c>
     </row>
     <row r="272">
@@ -19512,7 +19512,7 @@
         <v>626</v>
       </c>
       <c r="V272" t="n">
-        <v>29.52013562858633</v>
+        <v>29.30833333333333</v>
       </c>
     </row>
     <row r="273">
@@ -19582,7 +19582,7 @@
         <v>626</v>
       </c>
       <c r="V273" t="n">
-        <v>29.52273082942097</v>
+        <v>29.58611111111111</v>
       </c>
     </row>
     <row r="274">
@@ -19652,7 +19652,7 @@
         <v>628</v>
       </c>
       <c r="V274" t="n">
-        <v>29.52532603025561</v>
+        <v>29.89444444444445</v>
       </c>
     </row>
     <row r="275">
@@ -19722,7 +19722,7 @@
         <v>628</v>
       </c>
       <c r="V275" t="n">
-        <v>29.52792123109024</v>
+        <v>30.02916666666667</v>
       </c>
     </row>
     <row r="276">
@@ -19792,7 +19792,7 @@
         <v>628</v>
       </c>
       <c r="V276" t="n">
-        <v>29.53051643192488</v>
+        <v>30.16388888888889</v>
       </c>
     </row>
     <row r="277">
@@ -19862,7 +19862,7 @@
         <v>625</v>
       </c>
       <c r="V277" t="n">
-        <v>29.53311163275952</v>
+        <v>30.03888888888889</v>
       </c>
     </row>
     <row r="278">
@@ -19932,7 +19932,7 @@
         <v>625</v>
       </c>
       <c r="V278" t="n">
-        <v>29.53570683359415</v>
+        <v>29.74722222222222</v>
       </c>
     </row>
     <row r="279">
@@ -20002,7 +20002,7 @@
         <v>625</v>
       </c>
       <c r="V279" t="n">
-        <v>29.53830203442879</v>
+        <v>29.425</v>
       </c>
     </row>
     <row r="280">
@@ -20072,7 +20072,7 @@
         <v>625</v>
       </c>
       <c r="V280" t="n">
-        <v>29.54089723526343</v>
+        <v>29.29722222222222</v>
       </c>
     </row>
     <row r="281">
@@ -20142,7 +20142,7 @@
         <v>627</v>
       </c>
       <c r="V281" t="n">
-        <v>29.54349243609807</v>
+        <v>29.16944444444444</v>
       </c>
     </row>
     <row r="282">
@@ -20212,7 +20212,7 @@
         <v>627</v>
       </c>
       <c r="V282" t="n">
-        <v>29.54608763693271</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="283">
@@ -20282,7 +20282,7 @@
         <v>627</v>
       </c>
       <c r="V283" t="n">
-        <v>29.54868283776734</v>
+        <v>29.50555555555555</v>
       </c>
     </row>
     <row r="284">
@@ -20352,7 +20352,7 @@
         <v>627</v>
       </c>
       <c r="V284" t="n">
-        <v>29.55127803860198</v>
+        <v>29.57592592592593</v>
       </c>
     </row>
     <row r="285">
@@ -20422,7 +20422,7 @@
         <v>627</v>
       </c>
       <c r="V285" t="n">
-        <v>29.55387323943662</v>
+        <v>29.6462962962963</v>
       </c>
     </row>
     <row r="286">
@@ -20492,7 +20492,7 @@
         <v>627</v>
       </c>
       <c r="V286" t="n">
-        <v>29.55646844027126</v>
+        <v>29.71666666666667</v>
       </c>
     </row>
     <row r="287">
@@ -20562,7 +20562,7 @@
         <v>627</v>
       </c>
       <c r="V287" t="n">
-        <v>29.55906364110589</v>
+        <v>29.49166666666667</v>
       </c>
     </row>
     <row r="288">
@@ -20632,7 +20632,7 @@
         <v>627</v>
       </c>
       <c r="V288" t="n">
-        <v>29.56165884194053</v>
+        <v>29.25555555555555</v>
       </c>
     </row>
     <row r="289">
@@ -20702,7 +20702,7 @@
         <v>627</v>
       </c>
       <c r="V289" t="n">
-        <v>29.56425404277517</v>
+        <v>29.15555555555555</v>
       </c>
     </row>
     <row r="290">
@@ -20772,7 +20772,7 @@
         <v>624</v>
       </c>
       <c r="V290" t="n">
-        <v>29.56684924360981</v>
+        <v>29.26111111111111</v>
       </c>
     </row>
     <row r="291">
@@ -20982,7 +20982,7 @@
         <v>624</v>
       </c>
       <c r="V293" t="n">
-        <v>30.05347222222222</v>
+        <v>30.33611111111111</v>
       </c>
     </row>
     <row r="294">
@@ -21052,7 +21052,7 @@
         <v>624</v>
       </c>
       <c r="V294" t="n">
-        <v>30.12916666666667</v>
+        <v>30.42638888888889</v>
       </c>
     </row>
     <row r="295">
@@ -21122,7 +21122,7 @@
         <v>624</v>
       </c>
       <c r="V295" t="n">
-        <v>30.20486111111111</v>
+        <v>30.51666666666667</v>
       </c>
     </row>
     <row r="296">
@@ -21262,7 +21262,7 @@
         <v>623</v>
       </c>
       <c r="V297" t="n">
-        <v>30.25454545454545</v>
+        <v>29.90555555555556</v>
       </c>
     </row>
     <row r="298">
@@ -21332,7 +21332,7 @@
         <v>623</v>
       </c>
       <c r="V298" t="n">
-        <v>30.22853535353535</v>
+        <v>29.56944444444444</v>
       </c>
     </row>
     <row r="299">
@@ -21402,7 +21402,7 @@
         <v>623</v>
       </c>
       <c r="V299" t="n">
-        <v>30.20252525252525</v>
+        <v>29.45694444444445</v>
       </c>
     </row>
     <row r="300">
@@ -21472,7 +21472,7 @@
         <v>623</v>
       </c>
       <c r="V300" t="n">
-        <v>30.17651515151515</v>
+        <v>29.34444444444444</v>
       </c>
     </row>
     <row r="301">
@@ -21542,7 +21542,7 @@
         <v>623</v>
       </c>
       <c r="V301" t="n">
-        <v>30.15050505050505</v>
+        <v>29.51944444444444</v>
       </c>
     </row>
     <row r="302">
@@ -21612,7 +21612,7 @@
         <v>620</v>
       </c>
       <c r="V302" t="n">
-        <v>30.12449494949495</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="303">
@@ -21682,7 +21682,7 @@
         <v>620</v>
       </c>
       <c r="V303" t="n">
-        <v>30.09848484848485</v>
+        <v>30.13611111111111</v>
       </c>
     </row>
     <row r="304">
@@ -21752,7 +21752,7 @@
         <v>620</v>
       </c>
       <c r="V304" t="n">
-        <v>30.07247474747475</v>
+        <v>30.28055555555556</v>
       </c>
     </row>
     <row r="305">
@@ -21822,7 +21822,7 @@
         <v>622</v>
       </c>
       <c r="V305" t="n">
-        <v>30.04646464646465</v>
+        <v>30.425</v>
       </c>
     </row>
     <row r="306">
@@ -21892,7 +21892,7 @@
         <v>622</v>
       </c>
       <c r="V306" t="n">
-        <v>30.02045454545454</v>
+        <v>30.28611111111111</v>
       </c>
     </row>
     <row r="307">
@@ -22032,7 +22032,7 @@
         <v>622</v>
       </c>
       <c r="V308" t="n">
-        <v>30.00262345679012</v>
+        <v>29.61388888888889</v>
       </c>
     </row>
     <row r="309">
@@ -22102,7 +22102,7 @@
         <v>622</v>
       </c>
       <c r="V309" t="n">
-        <v>30.0108024691358</v>
+        <v>29.49722222222222</v>
       </c>
     </row>
     <row r="310">
@@ -22172,7 +22172,7 @@
         <v>622</v>
       </c>
       <c r="V310" t="n">
-        <v>30.01898148148148</v>
+        <v>29.38055555555555</v>
       </c>
     </row>
     <row r="311">
@@ -22242,7 +22242,7 @@
         <v>622</v>
       </c>
       <c r="V311" t="n">
-        <v>30.02716049382716</v>
+        <v>29.26388888888889</v>
       </c>
     </row>
     <row r="312">
@@ -22312,7 +22312,7 @@
         <v>622</v>
       </c>
       <c r="V312" t="n">
-        <v>30.03533950617284</v>
+        <v>29.46666666666667</v>
       </c>
     </row>
     <row r="313">
@@ -22382,7 +22382,7 @@
         <v>621</v>
       </c>
       <c r="V313" t="n">
-        <v>30.04351851851852</v>
+        <v>29.55555555555555</v>
       </c>
     </row>
     <row r="314">
@@ -22452,7 +22452,7 @@
         <v>621</v>
       </c>
       <c r="V314" t="n">
-        <v>30.0516975308642</v>
+        <v>29.64444444444445</v>
       </c>
     </row>
     <row r="315">
@@ -22522,7 +22522,7 @@
         <v>621</v>
       </c>
       <c r="V315" t="n">
-        <v>30.05987654320987</v>
+        <v>29.73333333333333</v>
       </c>
     </row>
     <row r="316">
@@ -22592,7 +22592,7 @@
         <v>621</v>
       </c>
       <c r="V316" t="n">
-        <v>30.06805555555555</v>
+        <v>29.66759259259259</v>
       </c>
     </row>
     <row r="317">
@@ -22662,7 +22662,7 @@
         <v>621</v>
       </c>
       <c r="V317" t="n">
-        <v>30.07623456790123</v>
+        <v>29.60185185185185</v>
       </c>
     </row>
     <row r="318">
@@ -22732,7 +22732,7 @@
         <v>621</v>
       </c>
       <c r="V318" t="n">
-        <v>30.08441358024691</v>
+        <v>29.53611111111111</v>
       </c>
     </row>
     <row r="319">
@@ -22802,7 +22802,7 @@
         <v>621</v>
       </c>
       <c r="V319" t="n">
-        <v>30.09259259259259</v>
+        <v>29.68333333333333</v>
       </c>
     </row>
     <row r="320">
@@ -22872,7 +22872,7 @@
         <v>622</v>
       </c>
       <c r="V320" t="n">
-        <v>30.10077160493827</v>
+        <v>29.93611111111111</v>
       </c>
     </row>
     <row r="321">
@@ -22942,7 +22942,7 @@
         <v>622</v>
       </c>
       <c r="V321" t="n">
-        <v>30.10895061728395</v>
+        <v>30.25833333333333</v>
       </c>
     </row>
     <row r="322">
@@ -23012,7 +23012,7 @@
         <v>622</v>
       </c>
       <c r="V322" t="n">
-        <v>30.11712962962963</v>
+        <v>30.40833333333333</v>
       </c>
     </row>
     <row r="323">
@@ -23082,7 +23082,7 @@
         <v>622</v>
       </c>
       <c r="V323" t="n">
-        <v>30.12530864197531</v>
+        <v>30.55833333333333</v>
       </c>
     </row>
     <row r="324">
@@ -23152,7 +23152,7 @@
         <v>622</v>
       </c>
       <c r="V324" t="n">
-        <v>30.13348765432099</v>
+        <v>30.43611111111111</v>
       </c>
     </row>
     <row r="325">
@@ -23362,7 +23362,7 @@
         <v>622</v>
       </c>
       <c r="V327" t="n">
-        <v>29.74495884773663</v>
+        <v>29.34722222222222</v>
       </c>
     </row>
     <row r="328">
@@ -23432,7 +23432,7 @@
         <v>620</v>
       </c>
       <c r="V328" t="n">
-        <v>29.74547325102881</v>
+        <v>29.175</v>
       </c>
     </row>
     <row r="329">
@@ -23502,7 +23502,7 @@
         <v>620</v>
       </c>
       <c r="V329" t="n">
-        <v>29.74598765432099</v>
+        <v>29.00277777777778</v>
       </c>
     </row>
     <row r="330">
@@ -23572,7 +23572,7 @@
         <v>620</v>
       </c>
       <c r="V330" t="n">
-        <v>29.74650205761317</v>
+        <v>29.18055555555555</v>
       </c>
     </row>
     <row r="331">
@@ -23642,7 +23642,7 @@
         <v>620</v>
       </c>
       <c r="V331" t="n">
-        <v>29.74701646090535</v>
+        <v>29.46111111111111</v>
       </c>
     </row>
     <row r="332">
@@ -23712,7 +23712,7 @@
         <v>620</v>
       </c>
       <c r="V332" t="n">
-        <v>29.74753086419753</v>
+        <v>29.73888888888889</v>
       </c>
     </row>
     <row r="333">
@@ -23782,7 +23782,7 @@
         <v>620</v>
       </c>
       <c r="V333" t="n">
-        <v>29.74804526748971</v>
+        <v>29.88888888888889</v>
       </c>
     </row>
     <row r="334">
@@ -23852,7 +23852,7 @@
         <v>620</v>
       </c>
       <c r="V334" t="n">
-        <v>29.74855967078189</v>
+        <v>29.76111111111111</v>
       </c>
     </row>
     <row r="335">
@@ -23922,7 +23922,7 @@
         <v>621</v>
       </c>
       <c r="V335" t="n">
-        <v>29.74907407407407</v>
+        <v>29.53333333333333</v>
       </c>
     </row>
     <row r="336">
@@ -23992,7 +23992,7 @@
         <v>621</v>
       </c>
       <c r="V336" t="n">
-        <v>29.74958847736626</v>
+        <v>29.34444444444444</v>
       </c>
     </row>
     <row r="337">
@@ -24062,7 +24062,7 @@
         <v>621</v>
       </c>
       <c r="V337" t="n">
-        <v>29.75010288065844</v>
+        <v>29.26666666666667</v>
       </c>
     </row>
     <row r="338">
@@ -24132,7 +24132,7 @@
         <v>621</v>
       </c>
       <c r="V338" t="n">
-        <v>29.75061728395062</v>
+        <v>29.18888888888889</v>
       </c>
     </row>
     <row r="339">
@@ -24202,7 +24202,7 @@
         <v>621</v>
       </c>
       <c r="V339" t="n">
-        <v>29.7511316872428</v>
+        <v>29.31944444444444</v>
       </c>
     </row>
     <row r="340">
@@ -24272,7 +24272,7 @@
         <v>621</v>
       </c>
       <c r="V340" t="n">
-        <v>29.75164609053498</v>
+        <v>29.58611111111111</v>
       </c>
     </row>
     <row r="341">
@@ -24342,7 +24342,7 @@
         <v>620</v>
       </c>
       <c r="V341" t="n">
-        <v>29.75216049382716</v>
+        <v>29.89166666666667</v>
       </c>
     </row>
     <row r="342">
@@ -24412,7 +24412,7 @@
         <v>620</v>
       </c>
       <c r="V342" t="n">
-        <v>29.75267489711934</v>
+        <v>29.95277777777778</v>
       </c>
     </row>
     <row r="343">
@@ -24482,7 +24482,7 @@
         <v>620</v>
       </c>
       <c r="V343" t="n">
-        <v>29.75318930041152</v>
+        <v>30.01388888888889</v>
       </c>
     </row>
     <row r="344">
@@ -24552,7 +24552,7 @@
         <v>620</v>
       </c>
       <c r="V344" t="n">
-        <v>29.7537037037037</v>
+        <v>29.86666666666666</v>
       </c>
     </row>
     <row r="345">
@@ -24622,7 +24622,7 @@
         <v>620</v>
       </c>
       <c r="V345" t="n">
-        <v>29.75421810699589</v>
+        <v>29.69166666666667</v>
       </c>
     </row>
     <row r="346">
@@ -24692,7 +24692,7 @@
         <v>619</v>
       </c>
       <c r="V346" t="n">
-        <v>29.75473251028806</v>
+        <v>29.55694444444444</v>
       </c>
     </row>
     <row r="347">
@@ -24762,7 +24762,7 @@
         <v>619</v>
       </c>
       <c r="V347" t="n">
-        <v>29.75524691358025</v>
+        <v>29.42222222222222</v>
       </c>
     </row>
     <row r="348">
@@ -24832,7 +24832,7 @@
         <v>623</v>
       </c>
       <c r="V348" t="n">
-        <v>29.75576131687243</v>
+        <v>29.55833333333333</v>
       </c>
     </row>
     <row r="349">
@@ -24902,7 +24902,7 @@
         <v>623</v>
       </c>
       <c r="V349" t="n">
-        <v>29.75627572016461</v>
+        <v>29.84444444444444</v>
       </c>
     </row>
     <row r="350">
@@ -24972,7 +24972,7 @@
         <v>623</v>
       </c>
       <c r="V350" t="n">
-        <v>29.75679012345679</v>
+        <v>30.14166666666667</v>
       </c>
     </row>
     <row r="351">
@@ -25042,7 +25042,7 @@
         <v>623</v>
       </c>
       <c r="V351" t="n">
-        <v>29.75730452674897</v>
+        <v>30.28055555555556</v>
       </c>
     </row>
     <row r="352">
@@ -25112,7 +25112,7 @@
         <v>623</v>
       </c>
       <c r="V352" t="n">
-        <v>29.75781893004115</v>
+        <v>30.09444444444444</v>
       </c>
     </row>
     <row r="353">
@@ -25252,7 +25252,7 @@
         <v>620</v>
       </c>
       <c r="V354" t="n">
-        <v>29.71388888888889</v>
+        <v>29.40555555555556</v>
       </c>
     </row>
     <row r="355">
@@ -25322,7 +25322,7 @@
         <v>620</v>
       </c>
       <c r="V355" t="n">
-        <v>29.66944444444444</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="356">
@@ -25392,7 +25392,7 @@
         <v>620</v>
       </c>
       <c r="V356" t="n">
-        <v>29.625</v>
+        <v>29.09444444444444</v>
       </c>
     </row>
     <row r="357">
@@ -25462,7 +25462,7 @@
         <v>620</v>
       </c>
       <c r="V357" t="n">
-        <v>29.58055555555556</v>
+        <v>29.23888888888889</v>
       </c>
     </row>
     <row r="358">
@@ -25602,7 +25602,7 @@
         <v>620</v>
       </c>
       <c r="V359" t="n">
-        <v>29.53684640522876</v>
+        <v>29.925</v>
       </c>
     </row>
     <row r="360">
@@ -25672,7 +25672,7 @@
         <v>622</v>
       </c>
       <c r="V360" t="n">
-        <v>29.5375816993464</v>
+        <v>30.0212962962963</v>
       </c>
     </row>
     <row r="361">
@@ -25742,7 +25742,7 @@
         <v>622</v>
       </c>
       <c r="V361" t="n">
-        <v>29.53831699346405</v>
+        <v>30.11759259259259</v>
       </c>
     </row>
     <row r="362">
@@ -25812,7 +25812,7 @@
         <v>622</v>
       </c>
       <c r="V362" t="n">
-        <v>29.5390522875817</v>
+        <v>30.21388888888889</v>
       </c>
     </row>
     <row r="363">
@@ -25882,7 +25882,7 @@
         <v>622</v>
       </c>
       <c r="V363" t="n">
-        <v>29.53978758169935</v>
+        <v>29.98888888888889</v>
       </c>
     </row>
     <row r="364">
@@ -25952,7 +25952,7 @@
         <v>622</v>
       </c>
       <c r="V364" t="n">
-        <v>29.54052287581699</v>
+        <v>29.70833333333333</v>
       </c>
     </row>
     <row r="365">
@@ -26022,7 +26022,7 @@
         <v>622</v>
       </c>
       <c r="V365" t="n">
-        <v>29.54125816993464</v>
+        <v>29.41944444444444</v>
       </c>
     </row>
     <row r="366">
@@ -26092,7 +26092,7 @@
         <v>622</v>
       </c>
       <c r="V366" t="n">
-        <v>29.54199346405229</v>
+        <v>29.31805555555556</v>
       </c>
     </row>
     <row r="367">
@@ -26162,7 +26162,7 @@
         <v>622</v>
       </c>
       <c r="V367" t="n">
-        <v>29.54272875816994</v>
+        <v>29.21666666666667</v>
       </c>
     </row>
     <row r="368">
@@ -26232,7 +26232,7 @@
         <v>622</v>
       </c>
       <c r="V368" t="n">
-        <v>29.54346405228758</v>
+        <v>29.47222222222222</v>
       </c>
     </row>
     <row r="369">
@@ -26302,7 +26302,7 @@
         <v>622</v>
       </c>
       <c r="V369" t="n">
-        <v>29.54419934640523</v>
+        <v>29.80833333333333</v>
       </c>
     </row>
     <row r="370">
@@ -26372,7 +26372,7 @@
         <v>622</v>
       </c>
       <c r="V370" t="n">
-        <v>29.54493464052288</v>
+        <v>30.01944444444445</v>
       </c>
     </row>
     <row r="371">
@@ -26442,7 +26442,7 @@
         <v>622</v>
       </c>
       <c r="V371" t="n">
-        <v>29.54566993464052</v>
+        <v>30.23055555555555</v>
       </c>
     </row>
     <row r="372">
@@ -26512,7 +26512,7 @@
         <v>622</v>
       </c>
       <c r="V372" t="n">
-        <v>29.54640522875817</v>
+        <v>30.07777777777778</v>
       </c>
     </row>
     <row r="373">
@@ -26582,7 +26582,7 @@
         <v>626</v>
       </c>
       <c r="V373" t="n">
-        <v>29.54714052287582</v>
+        <v>29.78611111111111</v>
       </c>
     </row>
     <row r="374">
@@ -26652,7 +26652,7 @@
         <v>626</v>
       </c>
       <c r="V374" t="n">
-        <v>29.54787581699346</v>
+        <v>29.46111111111111</v>
       </c>
     </row>
     <row r="375">
@@ -26722,7 +26722,7 @@
         <v>626</v>
       </c>
       <c r="V375" t="n">
-        <v>29.54861111111111</v>
+        <v>29.40694444444444</v>
       </c>
     </row>
     <row r="376">
@@ -26792,7 +26792,7 @@
         <v>626</v>
       </c>
       <c r="V376" t="n">
-        <v>29.54934640522876</v>
+        <v>29.35277777777778</v>
       </c>
     </row>
     <row r="377">
@@ -26862,7 +26862,7 @@
         <v>626</v>
       </c>
       <c r="V377" t="n">
-        <v>29.5500816993464</v>
+        <v>29.61666666666667</v>
       </c>
     </row>
     <row r="378">
@@ -26932,7 +26932,7 @@
         <v>626</v>
       </c>
       <c r="V378" t="n">
-        <v>29.55081699346405</v>
+        <v>29.90833333333333</v>
       </c>
     </row>
     <row r="379">
@@ -27002,7 +27002,7 @@
         <v>629</v>
       </c>
       <c r="V379" t="n">
-        <v>29.5515522875817</v>
+        <v>30.04444444444444</v>
       </c>
     </row>
     <row r="380">
@@ -27072,7 +27072,7 @@
         <v>629</v>
       </c>
       <c r="V380" t="n">
-        <v>29.55228758169935</v>
+        <v>29.93055555555555</v>
       </c>
     </row>
     <row r="381">
@@ -27142,7 +27142,7 @@
         <v>629</v>
       </c>
       <c r="V381" t="n">
-        <v>29.55302287581699</v>
+        <v>29.65833333333333</v>
       </c>
     </row>
     <row r="382">
@@ -27212,7 +27212,7 @@
         <v>629</v>
       </c>
       <c r="V382" t="n">
-        <v>29.55375816993464</v>
+        <v>29.475</v>
       </c>
     </row>
     <row r="383">
@@ -27282,7 +27282,7 @@
         <v>629</v>
       </c>
       <c r="V383" t="n">
-        <v>29.55449346405229</v>
+        <v>29.29166666666667</v>
       </c>
     </row>
     <row r="384">
@@ -27352,7 +27352,7 @@
         <v>629</v>
       </c>
       <c r="V384" t="n">
-        <v>29.55522875816994</v>
+        <v>29.41111111111111</v>
       </c>
     </row>
     <row r="385">
@@ -27422,7 +27422,7 @@
         <v>628</v>
       </c>
       <c r="V385" t="n">
-        <v>29.55596405228758</v>
+        <v>29.65277777777778</v>
       </c>
     </row>
     <row r="386">
@@ -27492,7 +27492,7 @@
         <v>628</v>
       </c>
       <c r="V386" t="n">
-        <v>29.55669934640523</v>
+        <v>29.72222222222222</v>
       </c>
     </row>
     <row r="387">
@@ -27562,7 +27562,7 @@
         <v>628</v>
       </c>
       <c r="V387" t="n">
-        <v>29.55743464052287</v>
+        <v>29.79166666666666</v>
       </c>
     </row>
     <row r="388">
@@ -27632,7 +27632,7 @@
         <v>628</v>
       </c>
       <c r="V388" t="n">
-        <v>29.55816993464052</v>
+        <v>29.63888888888889</v>
       </c>
     </row>
     <row r="389">
@@ -27702,7 +27702,7 @@
         <v>628</v>
       </c>
       <c r="V389" t="n">
-        <v>29.55890522875817</v>
+        <v>29.39722222222222</v>
       </c>
     </row>
     <row r="390">
@@ -27772,7 +27772,7 @@
         <v>628</v>
       </c>
       <c r="V390" t="n">
-        <v>29.55964052287582</v>
+        <v>29.32361111111111</v>
       </c>
     </row>
     <row r="391">
@@ -27842,7 +27842,7 @@
         <v>631</v>
       </c>
       <c r="V391" t="n">
-        <v>29.56037581699346</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="392">
@@ -28612,7 +28612,7 @@
         <v>630</v>
       </c>
       <c r="V402" t="n">
-        <v>34.87916666666667</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="403">
@@ -28682,7 +28682,7 @@
         <v>630</v>
       </c>
       <c r="V403" t="n">
-        <v>34.99444444444445</v>
+        <v>35.32222222222222</v>
       </c>
     </row>
     <row r="404">
@@ -28752,7 +28752,7 @@
         <v>630</v>
       </c>
       <c r="V404" t="n">
-        <v>35.10972222222222</v>
+        <v>35.44444444444444</v>
       </c>
     </row>
     <row r="405">
@@ -29522,7 +29522,7 @@
         <v>628</v>
       </c>
       <c r="V415" t="n">
-        <v>30.26111111111111</v>
+        <v>29.90555555555556</v>
       </c>
     </row>
     <row r="416">
@@ -29592,7 +29592,7 @@
         <v>628</v>
       </c>
       <c r="V416" t="n">
-        <v>30.175</v>
+        <v>29.81805555555555</v>
       </c>
     </row>
     <row r="417">
@@ -29662,7 +29662,7 @@
         <v>628</v>
       </c>
       <c r="V417" t="n">
-        <v>30.08888888888889</v>
+        <v>29.73055555555555</v>
       </c>
     </row>
     <row r="418">
@@ -30292,7 +30292,7 @@
         <v>631</v>
       </c>
       <c r="V426" t="n">
-        <v>34.13888888888889</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="427">
@@ -30362,7 +30362,7 @@
         <v>631</v>
       </c>
       <c r="V427" t="n">
-        <v>34.25277777777778</v>
+        <v>34.56805555555555</v>
       </c>
     </row>
     <row r="428">
@@ -30432,7 +30432,7 @@
         <v>631</v>
       </c>
       <c r="V428" t="n">
-        <v>34.36666666666667</v>
+        <v>34.68611111111111</v>
       </c>
     </row>
     <row r="429">
@@ -31202,7 +31202,7 @@
         <v>629</v>
       </c>
       <c r="V439" t="n">
-        <v>29.56388888888889</v>
+        <v>29.51388888888889</v>
       </c>
     </row>
     <row r="440">
@@ -31272,7 +31272,7 @@
         <v>629</v>
       </c>
       <c r="V440" t="n">
-        <v>29.22777777777777</v>
+        <v>29.16666666666666</v>
       </c>
     </row>
     <row r="441">
@@ -31342,7 +31342,7 @@
         <v>629</v>
       </c>
       <c r="V441" t="n">
-        <v>28.89166666666667</v>
+        <v>28.85833333333333</v>
       </c>
     </row>
     <row r="442">
@@ -31622,7 +31622,7 @@
         <v>626</v>
       </c>
       <c r="V445" t="n">
-        <v>27.59236111111111</v>
+        <v>27.375</v>
       </c>
     </row>
     <row r="446">
@@ -31692,7 +31692,7 @@
         <v>626</v>
       </c>
       <c r="V446" t="n">
-        <v>27.44027777777778</v>
+        <v>27.17777777777778</v>
       </c>
     </row>
     <row r="447">
@@ -31762,7 +31762,7 @@
         <v>626</v>
       </c>
       <c r="V447" t="n">
-        <v>27.28819444444444</v>
+        <v>26.98055555555555</v>
       </c>
     </row>
     <row r="448">
@@ -32462,7 +32462,7 @@
         <v>625</v>
       </c>
       <c r="V457" t="n">
-        <v>32.65069444444445</v>
+        <v>32.99722222222222</v>
       </c>
     </row>
     <row r="458">
@@ -32532,7 +32532,7 @@
         <v>625</v>
       </c>
       <c r="V458" t="n">
-        <v>32.74583333333334</v>
+        <v>33.09583333333333</v>
       </c>
     </row>
     <row r="459">
@@ -32602,7 +32602,7 @@
         <v>625</v>
       </c>
       <c r="V459" t="n">
-        <v>32.84097222222222</v>
+        <v>33.19444444444444</v>
       </c>
     </row>
     <row r="460">
@@ -33582,7 +33582,7 @@
         <v>626</v>
       </c>
       <c r="V473" t="n">
-        <v>26.87638888888889</v>
+        <v>26.57222222222222</v>
       </c>
     </row>
     <row r="474">
@@ -33652,7 +33652,7 @@
         <v>626</v>
       </c>
       <c r="V474" t="n">
-        <v>26.725</v>
+        <v>26.40277777777778</v>
       </c>
     </row>
     <row r="475">
@@ -33722,7 +33722,7 @@
         <v>626</v>
       </c>
       <c r="V475" t="n">
-        <v>26.57361111111111</v>
+        <v>26.23333333333333</v>
       </c>
     </row>
     <row r="476">
@@ -34492,7 +34492,7 @@
         <v>627</v>
       </c>
       <c r="V486" t="n">
-        <v>32.84791666666666</v>
+        <v>33.21111111111111</v>
       </c>
     </row>
     <row r="487">
@@ -34562,7 +34562,7 @@
         <v>623</v>
       </c>
       <c r="V487" t="n">
-        <v>33.06527777777778</v>
+        <v>33.55555555555556</v>
       </c>
     </row>
     <row r="488">
@@ -34632,7 +34632,7 @@
         <v>623</v>
       </c>
       <c r="V488" t="n">
-        <v>33.28263888888889</v>
+        <v>33.66666666666666</v>
       </c>
     </row>
     <row r="489">
@@ -35472,7 +35472,7 @@
         <v>622</v>
       </c>
       <c r="V500" t="n">
-        <v>28.36041666666667</v>
+        <v>27.98611111111111</v>
       </c>
     </row>
     <row r="501">
@@ -35542,7 +35542,7 @@
         <v>622</v>
       </c>
       <c r="V501" t="n">
-        <v>28.2875</v>
+        <v>27.90416666666667</v>
       </c>
     </row>
     <row r="502">
@@ -35612,7 +35612,7 @@
         <v>622</v>
       </c>
       <c r="V502" t="n">
-        <v>28.21458333333333</v>
+        <v>27.82222222222222</v>
       </c>
     </row>
     <row r="503">
@@ -36382,7 +36382,7 @@
         <v>616</v>
       </c>
       <c r="V513" t="n">
-        <v>33.78611111111111</v>
+        <v>34.01666666666667</v>
       </c>
     </row>
     <row r="514">
@@ -36452,7 +36452,7 @@
         <v>616</v>
       </c>
       <c r="V514" t="n">
-        <v>33.91388888888888</v>
+        <v>34.32222222222222</v>
       </c>
     </row>
     <row r="515">
@@ -36522,7 +36522,7 @@
         <v>616</v>
       </c>
       <c r="V515" t="n">
-        <v>34.04166666666666</v>
+        <v>34.57777777777778</v>
       </c>
     </row>
     <row r="516">
@@ -36592,7 +36592,7 @@
         <v>616</v>
       </c>
       <c r="V516" t="n">
-        <v>34.16944444444444</v>
+        <v>34.85833333333333</v>
       </c>
     </row>
     <row r="517">
@@ -36662,7 +36662,7 @@
         <v>616</v>
       </c>
       <c r="V517" t="n">
-        <v>34.29722222222222</v>
+        <v>35.12777777777777</v>
       </c>
     </row>
     <row r="518">
@@ -36732,7 +36732,7 @@
         <v>618</v>
       </c>
       <c r="V518" t="n">
-        <v>34.425</v>
+        <v>35.22083333333333</v>
       </c>
     </row>
     <row r="519">
@@ -36802,7 +36802,7 @@
         <v>618</v>
       </c>
       <c r="V519" t="n">
-        <v>34.55277777777778</v>
+        <v>35.31388888888889</v>
       </c>
     </row>
     <row r="520">
@@ -36872,7 +36872,7 @@
         <v>618</v>
       </c>
       <c r="V520" t="n">
-        <v>34.68055555555555</v>
+        <v>35.14444444444445</v>
       </c>
     </row>
     <row r="521">
@@ -37992,7 +37992,7 @@
         <v>617</v>
       </c>
       <c r="V536" t="n">
-        <v>27.06875</v>
+        <v>26.71666666666667</v>
       </c>
     </row>
     <row r="537">
@@ -38062,7 +38062,7 @@
         <v>617</v>
       </c>
       <c r="V537" t="n">
-        <v>26.99305555555555</v>
+        <v>26.61388888888889</v>
       </c>
     </row>
     <row r="538">
@@ -38132,7 +38132,7 @@
         <v>617</v>
       </c>
       <c r="V538" t="n">
-        <v>26.91736111111111</v>
+        <v>26.51111111111111</v>
       </c>
     </row>
     <row r="539">
@@ -38902,7 +38902,7 @@
         <v>617</v>
       </c>
       <c r="V549" t="n">
-        <v>33.93819444444444</v>
+        <v>34.34722222222222</v>
       </c>
     </row>
     <row r="550">
@@ -38972,7 +38972,7 @@
         <v>617</v>
       </c>
       <c r="V550" t="n">
-        <v>34.06805555555555</v>
+        <v>34.46805555555555</v>
       </c>
     </row>
     <row r="551">
@@ -39042,7 +39042,7 @@
         <v>617</v>
       </c>
       <c r="V551" t="n">
-        <v>34.19791666666666</v>
+        <v>34.58888888888889</v>
       </c>
     </row>
     <row r="552">
@@ -40232,7 +40232,7 @@
         <v>616</v>
       </c>
       <c r="V568" t="n">
-        <v>27.05902777777778</v>
+        <v>26.73333333333333</v>
       </c>
     </row>
     <row r="569">
@@ -40302,7 +40302,7 @@
         <v>616</v>
       </c>
       <c r="V569" t="n">
-        <v>26.97638888888889</v>
+        <v>26.62638888888889</v>
       </c>
     </row>
     <row r="570">
@@ -40372,7 +40372,7 @@
         <v>616</v>
       </c>
       <c r="V570" t="n">
-        <v>26.89375</v>
+        <v>26.51944444444444</v>
       </c>
     </row>
     <row r="571">
@@ -41492,7 +41492,7 @@
         <v>616</v>
       </c>
       <c r="V586" t="n">
-        <v>34.87129629629629</v>
+        <v>35.14166666666667</v>
       </c>
     </row>
     <row r="587">
@@ -41562,7 +41562,7 @@
         <v>616</v>
       </c>
       <c r="V587" t="n">
-        <v>35.0037037037037</v>
+        <v>35.275</v>
       </c>
     </row>
     <row r="588">
@@ -42892,7 +42892,7 @@
         <v>616</v>
       </c>
       <c r="V606" t="n">
-        <v>27.00972222222222</v>
+        <v>26.67222222222222</v>
       </c>
     </row>
     <row r="607">
@@ -42962,7 +42962,7 @@
         <v>616</v>
       </c>
       <c r="V607" t="n">
-        <v>26.91111111111111</v>
+        <v>26.54444444444444</v>
       </c>
     </row>
     <row r="608">
@@ -43032,7 +43032,7 @@
         <v>616</v>
       </c>
       <c r="V608" t="n">
-        <v>26.8125</v>
+        <v>26.41666666666666</v>
       </c>
     </row>
     <row r="609">
@@ -43802,7 +43802,7 @@
         <v>614</v>
       </c>
       <c r="V619" t="n">
-        <v>34.60555555555555</v>
+        <v>34.90555555555555</v>
       </c>
     </row>
     <row r="620">
@@ -43872,7 +43872,7 @@
         <v>614</v>
       </c>
       <c r="V620" t="n">
-        <v>34.90277777777778</v>
+        <v>35.05277777777778</v>
       </c>
     </row>
     <row r="621">
@@ -44152,7 +44152,7 @@
         <v>615</v>
       </c>
       <c r="V624" t="n">
-        <v>34.04166666666666</v>
+        <v>33.68055555555556</v>
       </c>
     </row>
     <row r="625">
@@ -44222,7 +44222,7 @@
         <v>615</v>
       </c>
       <c r="V625" t="n">
-        <v>33.9</v>
+        <v>33.50555555555555</v>
       </c>
     </row>
     <row r="626">
@@ -44852,7 +44852,7 @@
         <v>616</v>
       </c>
       <c r="V634" t="n">
-        <v>34.85092592592593</v>
+        <v>34.47777777777778</v>
       </c>
     </row>
     <row r="635">
@@ -44922,7 +44922,7 @@
         <v>616</v>
       </c>
       <c r="V635" t="n">
-        <v>34.68518518518518</v>
+        <v>34.29166666666666</v>
       </c>
     </row>
     <row r="636">
@@ -45202,7 +45202,7 @@
         <v>616</v>
       </c>
       <c r="V639" t="n">
-        <v>35.50925925925926</v>
+        <v>35.79444444444444</v>
       </c>
     </row>
     <row r="640">
@@ -45272,7 +45272,7 @@
         <v>616</v>
       </c>
       <c r="V640" t="n">
-        <v>35.58518518518518</v>
+        <v>35.90277777777778</v>
       </c>
     </row>
     <row r="641">
@@ -45622,7 +45622,7 @@
         <v>615</v>
       </c>
       <c r="V645" t="n">
-        <v>33.45185185185185</v>
+        <v>33.21944444444444</v>
       </c>
     </row>
     <row r="646">
@@ -45692,7 +45692,7 @@
         <v>615</v>
       </c>
       <c r="V646" t="n">
-        <v>33.15648148148148</v>
+        <v>33.04027777777777</v>
       </c>
     </row>
     <row r="647">
@@ -46042,7 +46042,7 @@
         <v>616</v>
       </c>
       <c r="V651" t="n">
-        <v>35.06018518518518</v>
+        <v>35.44722222222222</v>
       </c>
     </row>
     <row r="652">
@@ -46112,7 +46112,7 @@
         <v>616</v>
       </c>
       <c r="V652" t="n">
-        <v>35.33148148148148</v>
+        <v>35.76666666666667</v>
       </c>
     </row>
     <row r="653">
@@ -46672,7 +46672,7 @@
         <v>615</v>
       </c>
       <c r="V660" t="n">
-        <v>35.33240740740741</v>
+        <v>35.56944444444445</v>
       </c>
     </row>
     <row r="661">
@@ -46742,7 +46742,7 @@
         <v>615</v>
       </c>
       <c r="V661" t="n">
-        <v>35.62592592592593</v>
+        <v>35.74444444444445</v>
       </c>
     </row>
     <row r="662">
@@ -47092,7 +47092,7 @@
         <v>614</v>
       </c>
       <c r="V666" t="n">
-        <v>34.21349206349206</v>
+        <v>33.61666666666667</v>
       </c>
     </row>
     <row r="667">
@@ -47162,7 +47162,7 @@
         <v>614</v>
       </c>
       <c r="V667" t="n">
-        <v>34.25198412698413</v>
+        <v>33.44444444444444</v>
       </c>
     </row>
     <row r="668">
@@ -47232,7 +47232,7 @@
         <v>615</v>
       </c>
       <c r="V668" t="n">
-        <v>34.29047619047619</v>
+        <v>33.55833333333333</v>
       </c>
     </row>
     <row r="669">
@@ -47302,7 +47302,7 @@
         <v>617</v>
       </c>
       <c r="V669" t="n">
-        <v>34.32896825396825</v>
+        <v>33.84722222222222</v>
       </c>
     </row>
     <row r="670">
@@ -47372,7 +47372,7 @@
         <v>617</v>
       </c>
       <c r="V670" t="n">
-        <v>34.36746031746031</v>
+        <v>34.17777777777778</v>
       </c>
     </row>
     <row r="671">
@@ -47442,7 +47442,7 @@
         <v>617</v>
       </c>
       <c r="V671" t="n">
-        <v>34.40595238095238</v>
+        <v>34.31111111111111</v>
       </c>
     </row>
     <row r="672">
@@ -47722,7 +47722,7 @@
         <v>618</v>
       </c>
       <c r="V675" t="n">
-        <v>33.13981481481481</v>
+        <v>32.83333333333334</v>
       </c>
     </row>
     <row r="676">
@@ -47792,7 +47792,7 @@
         <v>618</v>
       </c>
       <c r="V676" t="n">
-        <v>32.83240740740741</v>
+        <v>32.67916666666667</v>
       </c>
     </row>
     <row r="677">
@@ -48492,7 +48492,7 @@
         <v>614</v>
       </c>
       <c r="V686" t="n">
-        <v>34.29814814814814</v>
+        <v>33.95833333333334</v>
       </c>
     </row>
     <row r="687">
@@ -48562,7 +48562,7 @@
         <v>618</v>
       </c>
       <c r="V687" t="n">
-        <v>34.0212962962963</v>
+        <v>33.62222222222222</v>
       </c>
     </row>
     <row r="688">
@@ -48842,7 +48842,7 @@
         <v>618</v>
       </c>
       <c r="V691" t="n">
-        <v>34.83518518518518</v>
+        <v>35.10277777777778</v>
       </c>
     </row>
     <row r="692">
@@ -48912,7 +48912,7 @@
         <v>616</v>
       </c>
       <c r="V692" t="n">
-        <v>35.03148148148148</v>
+        <v>35.36666666666667</v>
       </c>
     </row>
     <row r="693">
@@ -49262,7 +49262,7 @@
         <v>616</v>
       </c>
       <c r="V697" t="n">
-        <v>33.3574074074074</v>
+        <v>33.18611111111111</v>
       </c>
     </row>
     <row r="698">
@@ -49332,7 +49332,7 @@
         <v>618</v>
       </c>
       <c r="V698" t="n">
-        <v>33.33703703703704</v>
+        <v>32.99444444444445</v>
       </c>
     </row>
     <row r="699">
@@ -49682,7 +49682,7 @@
         <v>615</v>
       </c>
       <c r="V703" t="n">
-        <v>35.85555555555555</v>
+        <v>36.05416666666667</v>
       </c>
     </row>
     <row r="704">
@@ -49752,7 +49752,7 @@
         <v>615</v>
       </c>
       <c r="V704" t="n">
-        <v>35.97222222222221</v>
+        <v>36.36944444444445</v>
       </c>
     </row>
     <row r="705">
@@ -49962,7 +49962,7 @@
         <v>615</v>
       </c>
       <c r="V707" t="n">
-        <v>35.47380952380952</v>
+        <v>34.91944444444444</v>
       </c>
     </row>
     <row r="708">
@@ -50032,7 +50032,7 @@
         <v>615</v>
       </c>
       <c r="V708" t="n">
-        <v>35.42539682539682</v>
+        <v>34.7875</v>
       </c>
     </row>
     <row r="709">
@@ -50102,7 +50102,7 @@
         <v>615</v>
       </c>
       <c r="V709" t="n">
-        <v>35.37698412698413</v>
+        <v>34.65555555555556</v>
       </c>
     </row>
     <row r="710">
@@ -50172,7 +50172,7 @@
         <v>620</v>
       </c>
       <c r="V710" t="n">
-        <v>35.32857142857142</v>
+        <v>34.84999999999999</v>
       </c>
     </row>
     <row r="711">
@@ -50242,7 +50242,7 @@
         <v>620</v>
       </c>
       <c r="V711" t="n">
-        <v>35.28015873015872</v>
+        <v>35.07777777777778</v>
       </c>
     </row>
     <row r="712">
@@ -50312,7 +50312,7 @@
         <v>620</v>
       </c>
       <c r="V712" t="n">
-        <v>35.23174603174603</v>
+        <v>35.13055555555555</v>
       </c>
     </row>
     <row r="713">
@@ -50662,7 +50662,7 @@
         <v>616</v>
       </c>
       <c r="V717" t="n">
-        <v>33.39814814814815</v>
+        <v>33.2375</v>
       </c>
     </row>
     <row r="718">
@@ -50732,7 +50732,7 @@
         <v>616</v>
       </c>
       <c r="V718" t="n">
-        <v>33.35185185185185</v>
+        <v>33.03055555555555</v>
       </c>
     </row>
     <row r="719">
@@ -51082,7 +51082,7 @@
         <v>616</v>
       </c>
       <c r="V723" t="n">
-        <v>35.94722222222222</v>
+        <v>36.30555555555555</v>
       </c>
     </row>
     <row r="724">
@@ -51152,7 +51152,7 @@
         <v>616</v>
       </c>
       <c r="V724" t="n">
-        <v>36.175</v>
+        <v>36.55277777777778</v>
       </c>
     </row>
     <row r="725">
@@ -51502,7 +51502,7 @@
         <v>614</v>
       </c>
       <c r="V729" t="n">
-        <v>34.3</v>
+        <v>33.93888888888889</v>
       </c>
     </row>
     <row r="730">
@@ -51572,7 +51572,7 @@
         <v>614</v>
       </c>
       <c r="V730" t="n">
-        <v>34.15</v>
+        <v>33.81666666666666</v>
       </c>
     </row>
     <row r="731">
@@ -51782,7 +51782,7 @@
         <v>615</v>
       </c>
       <c r="V733" t="n">
-        <v>34.56574074074074</v>
+        <v>34.75555555555555</v>
       </c>
     </row>
     <row r="734">
@@ -51852,7 +51852,7 @@
         <v>615</v>
       </c>
       <c r="V734" t="n">
-        <v>34.77592592592593</v>
+        <v>34.87083333333334</v>
       </c>
     </row>
     <row r="735">
@@ -52202,7 +52202,7 @@
         <v>617</v>
       </c>
       <c r="V739" t="n">
-        <v>33.16203703703704</v>
+        <v>33.0125</v>
       </c>
     </row>
     <row r="740">
@@ -52272,7 +52272,7 @@
         <v>617</v>
       </c>
       <c r="V740" t="n">
-        <v>33.09351851851851</v>
+        <v>32.79444444444444</v>
       </c>
     </row>
     <row r="741">
@@ -52622,7 +52622,7 @@
         <v>615</v>
       </c>
       <c r="V745" t="n">
-        <v>35.8287037037037</v>
+        <v>36.18888888888889</v>
       </c>
     </row>
     <row r="746">
@@ -52692,7 +52692,7 @@
         <v>615</v>
       </c>
       <c r="V746" t="n">
-        <v>36.1462962962963</v>
+        <v>36.32638888888889</v>
       </c>
     </row>
     <row r="747">
@@ -53042,7 +53042,7 @@
         <v>616</v>
       </c>
       <c r="V751" t="n">
-        <v>34.46759259259259</v>
+        <v>34.12222222222222</v>
       </c>
     </row>
     <row r="752">
@@ -53112,7 +53112,7 @@
         <v>616</v>
       </c>
       <c r="V752" t="n">
-        <v>34.3212962962963</v>
+        <v>34.01666666666667</v>
       </c>
     </row>
     <row r="753">
@@ -53462,7 +53462,7 @@
         <v>616</v>
       </c>
       <c r="V757" t="n">
-        <v>36.34629629629629</v>
+        <v>36.53194444444444</v>
       </c>
     </row>
     <row r="758">
@@ -53532,7 +53532,7 @@
         <v>616</v>
       </c>
       <c r="V758" t="n">
-        <v>36.40092592592593</v>
+        <v>36.77222222222222</v>
       </c>
     </row>
     <row r="759">
@@ -53952,7 +53952,7 @@
         <v>623</v>
       </c>
       <c r="V764" t="n">
-        <v>33.22129629629629</v>
+        <v>32.93611111111111</v>
       </c>
     </row>
     <row r="765">
@@ -54022,7 +54022,7 @@
         <v>623</v>
       </c>
       <c r="V765" t="n">
-        <v>32.93425925925926</v>
+        <v>32.79166666666666</v>
       </c>
     </row>
     <row r="766">
@@ -54302,7 +54302,7 @@
         <v>623</v>
       </c>
       <c r="V769" t="n">
-        <v>33.68214285714286</v>
+        <v>34.23611111111111</v>
       </c>
     </row>
     <row r="770">
@@ -54372,7 +54372,7 @@
         <v>619</v>
       </c>
       <c r="V770" t="n">
-        <v>33.73095238095238</v>
+        <v>34.34722222222221</v>
       </c>
     </row>
     <row r="771">
@@ -54442,7 +54442,7 @@
         <v>619</v>
       </c>
       <c r="V771" t="n">
-        <v>33.77976190476191</v>
+        <v>34.45833333333333</v>
       </c>
     </row>
     <row r="772">
@@ -54512,7 +54512,7 @@
         <v>619</v>
       </c>
       <c r="V772" t="n">
-        <v>33.82857142857143</v>
+        <v>34.16111111111111</v>
       </c>
     </row>
     <row r="773">
@@ -54582,7 +54582,7 @@
         <v>619</v>
       </c>
       <c r="V773" t="n">
-        <v>33.87738095238095</v>
+        <v>33.87777777777777</v>
       </c>
     </row>
     <row r="774">
@@ -54652,7 +54652,7 @@
         <v>619</v>
       </c>
       <c r="V774" t="n">
-        <v>33.92619047619048</v>
+        <v>33.76111111111111</v>
       </c>
     </row>
     <row r="775">
@@ -55002,7 +55002,7 @@
         <v>622</v>
       </c>
       <c r="V779" t="n">
-        <v>36.55648148148148</v>
+        <v>36.90833333333333</v>
       </c>
     </row>
     <row r="780">
@@ -55072,7 +55072,7 @@
         <v>622</v>
       </c>
       <c r="V780" t="n">
-        <v>36.7712962962963</v>
+        <v>37.10833333333333</v>
       </c>
     </row>
     <row r="781">
@@ -55632,7 +55632,7 @@
         <v>617</v>
       </c>
       <c r="V788" t="n">
-        <v>33.37222222222222</v>
+        <v>33.03333333333333</v>
       </c>
     </row>
     <row r="789">
@@ -55702,7 +55702,7 @@
         <v>617</v>
       </c>
       <c r="V789" t="n">
-        <v>33.21388888888889</v>
+        <v>32.84166666666667</v>
       </c>
     </row>
     <row r="790">
@@ -55772,7 +55772,7 @@
         <v>617</v>
       </c>
       <c r="V790" t="n">
-        <v>33.05555555555556</v>
+        <v>32.65</v>
       </c>
     </row>
     <row r="791">
@@ -56122,7 +56122,7 @@
         <v>620</v>
       </c>
       <c r="V795" t="n">
-        <v>35.53425925925926</v>
+        <v>35.90833333333334</v>
       </c>
     </row>
     <row r="796">
@@ -56192,7 +56192,7 @@
         <v>620</v>
       </c>
       <c r="V796" t="n">
-        <v>35.76574074074074</v>
+        <v>36.13611111111111</v>
       </c>
     </row>
     <row r="797">
@@ -56472,7 +56472,7 @@
         <v>618</v>
       </c>
       <c r="V800" t="n">
-        <v>34.73333333333333</v>
+        <v>34.475</v>
       </c>
     </row>
     <row r="801">
@@ -56542,7 +56542,7 @@
         <v>618</v>
       </c>
       <c r="V801" t="n">
-        <v>34.58333333333334</v>
+        <v>34.41805555555555</v>
       </c>
     </row>
     <row r="802">
@@ -56612,7 +56612,7 @@
         <v>618</v>
       </c>
       <c r="V802" t="n">
-        <v>34.43333333333334</v>
+        <v>34.36111111111111</v>
       </c>
     </row>
     <row r="803">
@@ -56682,7 +56682,7 @@
         <v>615</v>
       </c>
       <c r="V803" t="n">
-        <v>34.28333333333333</v>
+        <v>34.30416666666667</v>
       </c>
     </row>
     <row r="804">
@@ -56752,7 +56752,7 @@
         <v>615</v>
       </c>
       <c r="V804" t="n">
-        <v>34.13333333333333</v>
+        <v>34.24722222222222</v>
       </c>
     </row>
     <row r="805">
@@ -56962,7 +56962,7 @@
         <v>615</v>
       </c>
       <c r="V807" t="n">
-        <v>33.45625</v>
+        <v>33.04722222222222</v>
       </c>
     </row>
     <row r="808">
@@ -57032,7 +57032,7 @@
         <v>616</v>
       </c>
       <c r="V808" t="n">
-        <v>33.37083333333333</v>
+        <v>32.75555555555555</v>
       </c>
     </row>
     <row r="809">
@@ -57102,7 +57102,7 @@
         <v>616</v>
       </c>
       <c r="V809" t="n">
-        <v>33.28541666666666</v>
+        <v>32.87222222222222</v>
       </c>
     </row>
     <row r="810">
@@ -57802,7 +57802,7 @@
         <v>619</v>
       </c>
       <c r="V819" t="n">
-        <v>37.35648148148148</v>
+        <v>37.58055555555556</v>
       </c>
     </row>
     <row r="820">
@@ -57872,7 +57872,7 @@
         <v>619</v>
       </c>
       <c r="V820" t="n">
-        <v>37.4824074074074</v>
+        <v>37.71111111111111</v>
       </c>
     </row>
     <row r="821">
@@ -58572,7 +58572,7 @@
         <v>630</v>
       </c>
       <c r="V830" t="n">
-        <v>32.75092592592593</v>
+        <v>32.46944444444444</v>
       </c>
     </row>
     <row r="831">
@@ -58642,7 +58642,7 @@
         <v>630</v>
       </c>
       <c r="V831" t="n">
-        <v>32.61296296296297</v>
+        <v>32.31111111111111</v>
       </c>
     </row>
     <row r="832">
@@ -58992,7 +58992,7 @@
         <v>631</v>
       </c>
       <c r="V836" t="n">
-        <v>34.83611111111111</v>
+        <v>35.19166666666666</v>
       </c>
     </row>
     <row r="837">
@@ -59062,7 +59062,7 @@
         <v>631</v>
       </c>
       <c r="V837" t="n">
-        <v>35.10833333333333</v>
+        <v>35.28611111111111</v>
       </c>
     </row>
     <row r="838">
@@ -59412,7 +59412,7 @@
         <v>625</v>
       </c>
       <c r="V842" t="n">
-        <v>33.40277777777778</v>
+        <v>33.25277777777778</v>
       </c>
     </row>
     <row r="843">
@@ -59482,7 +59482,7 @@
         <v>625</v>
       </c>
       <c r="V843" t="n">
-        <v>33.28611111111111</v>
+        <v>32.98611111111111</v>
       </c>
     </row>
     <row r="844">
@@ -59762,7 +59762,7 @@
         <v>625</v>
       </c>
       <c r="V847" t="n">
-        <v>34.39259259259259</v>
+        <v>34.53333333333333</v>
       </c>
     </row>
     <row r="848">
@@ -59832,7 +59832,7 @@
         <v>625</v>
       </c>
       <c r="V848" t="n">
-        <v>34.76018518518518</v>
+        <v>34.88055555555555</v>
       </c>
     </row>
     <row r="849">
@@ -60112,7 +60112,7 @@
         <v>627</v>
       </c>
       <c r="V852" t="n">
-        <v>36.24236111111111</v>
+        <v>36.55</v>
       </c>
     </row>
     <row r="853">
@@ -60182,7 +60182,7 @@
         <v>627</v>
       </c>
       <c r="V853" t="n">
-        <v>36.3736111111111</v>
+        <v>36.71111111111112</v>
       </c>
     </row>
     <row r="854">
@@ -60252,7 +60252,7 @@
         <v>627</v>
       </c>
       <c r="V854" t="n">
-        <v>36.5048611111111</v>
+        <v>36.87222222222223</v>
       </c>
     </row>
     <row r="855">
@@ -60742,7 +60742,7 @@
         <v>630</v>
       </c>
       <c r="V861" t="n">
-        <v>33.14907407407407</v>
+        <v>32.80555555555555</v>
       </c>
     </row>
     <row r="862">
@@ -60812,7 +60812,7 @@
         <v>630</v>
       </c>
       <c r="V862" t="n">
-        <v>33.04537037037037</v>
+        <v>32.66111111111111</v>
       </c>
     </row>
     <row r="863">
@@ -61092,7 +61092,7 @@
         <v>639</v>
       </c>
       <c r="V866" t="n">
-        <v>34.34907407407407</v>
+        <v>34.68888888888889</v>
       </c>
     </row>
     <row r="867">
@@ -61162,7 +61162,7 @@
         <v>639</v>
       </c>
       <c r="V867" t="n">
-        <v>34.56203703703704</v>
+        <v>34.95555555555556</v>
       </c>
     </row>
     <row r="868">
@@ -61442,7 +61442,7 @@
         <v>633</v>
       </c>
       <c r="V871" t="n">
-        <v>33.84893162393163</v>
+        <v>33.44722222222222</v>
       </c>
     </row>
     <row r="872">
@@ -61512,7 +61512,7 @@
         <v>633</v>
       </c>
       <c r="V872" t="n">
-        <v>33.85064102564102</v>
+        <v>33.38796296296297</v>
       </c>
     </row>
     <row r="873">
@@ -61582,7 +61582,7 @@
         <v>633</v>
       </c>
       <c r="V873" t="n">
-        <v>33.85235042735043</v>
+        <v>33.3287037037037</v>
       </c>
     </row>
     <row r="874">
@@ -61652,7 +61652,7 @@
         <v>638</v>
       </c>
       <c r="V874" t="n">
-        <v>33.85405982905983</v>
+        <v>33.26944444444445</v>
       </c>
     </row>
     <row r="875">
@@ -61722,7 +61722,7 @@
         <v>638</v>
       </c>
       <c r="V875" t="n">
-        <v>33.85576923076923</v>
+        <v>33.30208333333334</v>
       </c>
     </row>
     <row r="876">
@@ -61792,7 +61792,7 @@
         <v>638</v>
       </c>
       <c r="V876" t="n">
-        <v>33.85747863247863</v>
+        <v>33.33472222222223</v>
       </c>
     </row>
     <row r="877">
@@ -61862,7 +61862,7 @@
         <v>638</v>
       </c>
       <c r="V877" t="n">
-        <v>33.85918803418804</v>
+        <v>33.36736111111111</v>
       </c>
     </row>
     <row r="878">
@@ -61932,7 +61932,7 @@
         <v>638</v>
       </c>
       <c r="V878" t="n">
-        <v>33.86089743589744</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="879">
@@ -62002,7 +62002,7 @@
         <v>638</v>
       </c>
       <c r="V879" t="n">
-        <v>33.86260683760684</v>
+        <v>33.43263888888889</v>
       </c>
     </row>
     <row r="880">
@@ -62072,7 +62072,7 @@
         <v>639</v>
       </c>
       <c r="V880" t="n">
-        <v>33.86431623931624</v>
+        <v>33.46527777777777</v>
       </c>
     </row>
     <row r="881">
@@ -62142,7 +62142,7 @@
         <v>639</v>
       </c>
       <c r="V881" t="n">
-        <v>33.86602564102564</v>
+        <v>33.49791666666666</v>
       </c>
     </row>
     <row r="882">
@@ -62212,7 +62212,7 @@
         <v>639</v>
       </c>
       <c r="V882" t="n">
-        <v>33.86773504273504</v>
+        <v>33.53055555555555</v>
       </c>
     </row>
     <row r="883">
@@ -62492,7 +62492,7 @@
         <v>628</v>
       </c>
       <c r="V886" t="n">
-        <v>35.26944444444445</v>
+        <v>35.55277777777778</v>
       </c>
     </row>
     <row r="887">
@@ -62562,7 +62562,7 @@
         <v>628</v>
       </c>
       <c r="V887" t="n">
-        <v>35.47222222222222</v>
+        <v>35.78611111111111</v>
       </c>
     </row>
     <row r="888">
@@ -62912,7 +62912,7 @@
         <v>629</v>
       </c>
       <c r="V892" t="n">
-        <v>33.78611111111111</v>
+        <v>33.37777777777777</v>
       </c>
     </row>
     <row r="893">
@@ -62982,7 +62982,7 @@
         <v>629</v>
       </c>
       <c r="V893" t="n">
-        <v>33.60277777777778</v>
+        <v>33.17916666666666</v>
       </c>
     </row>
     <row r="894">
@@ -63052,7 +63052,7 @@
         <v>629</v>
       </c>
       <c r="V894" t="n">
-        <v>33.41944444444445</v>
+        <v>32.98055555555555</v>
       </c>
     </row>
     <row r="895">
@@ -63402,7 +63402,7 @@
         <v>627</v>
       </c>
       <c r="V899" t="n">
-        <v>35.84537037037037</v>
+        <v>36.24166666666667</v>
       </c>
     </row>
     <row r="900">
@@ -63472,7 +63472,7 @@
         <v>627</v>
       </c>
       <c r="V900" t="n">
-        <v>36.07962962962962</v>
+        <v>36.45833333333334</v>
       </c>
     </row>
     <row r="901">
@@ -63962,7 +63962,7 @@
         <v>628</v>
       </c>
       <c r="V907" t="n">
-        <v>33.22013888888889</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="908">
@@ -64032,7 +64032,7 @@
         <v>628</v>
       </c>
       <c r="V908" t="n">
-        <v>33.05416666666667</v>
+        <v>32.66111111111111</v>
       </c>
     </row>
     <row r="909">
@@ -64102,7 +64102,7 @@
         <v>628</v>
       </c>
       <c r="V909" t="n">
-        <v>32.88819444444444</v>
+        <v>32.47222222222222</v>
       </c>
     </row>
     <row r="910">
@@ -64522,7 +64522,7 @@
         <v>627</v>
       </c>
       <c r="V915" t="n">
-        <v>35.82083333333333</v>
+        <v>36.27222222222223</v>
       </c>
     </row>
     <row r="916">
@@ -64592,7 +64592,7 @@
         <v>627</v>
       </c>
       <c r="V916" t="n">
-        <v>35.84444444444445</v>
+        <v>36.43055555555556</v>
       </c>
     </row>
     <row r="917">
@@ -64662,7 +64662,7 @@
         <v>627</v>
       </c>
       <c r="V917" t="n">
-        <v>35.86805555555556</v>
+        <v>36.23888888888889</v>
       </c>
     </row>
     <row r="918">
@@ -65222,7 +65222,7 @@
         <v>625</v>
       </c>
       <c r="V925" t="n">
-        <v>33.22</v>
+        <v>32.84722222222222</v>
       </c>
     </row>
     <row r="926">
@@ -65292,7 +65292,7 @@
         <v>625</v>
       </c>
       <c r="V926" t="n">
-        <v>33.15111111111111</v>
+        <v>32.66111111111111</v>
       </c>
     </row>
     <row r="927">
@@ -65362,7 +65362,7 @@
         <v>625</v>
       </c>
       <c r="V927" t="n">
-        <v>33.08222222222222</v>
+        <v>32.475</v>
       </c>
     </row>
     <row r="928">
@@ -65432,7 +65432,7 @@
         <v>625</v>
       </c>
       <c r="V928" t="n">
-        <v>33.01333333333334</v>
+        <v>32.62222222222222</v>
       </c>
     </row>
     <row r="929">
@@ -65642,7 +65642,7 @@
         <v>625</v>
       </c>
       <c r="V931" t="n">
-        <v>33.42777777777778</v>
+        <v>33.71666666666666</v>
       </c>
     </row>
     <row r="932">
@@ -65712,7 +65712,7 @@
         <v>627</v>
       </c>
       <c r="V932" t="n">
-        <v>33.52222222222223</v>
+        <v>33.99166666666667</v>
       </c>
     </row>
     <row r="933">
@@ -65782,7 +65782,7 @@
         <v>627</v>
       </c>
       <c r="V933" t="n">
-        <v>33.61666666666667</v>
+        <v>34.09444444444445</v>
       </c>
     </row>
     <row r="934">
@@ -65852,7 +65852,7 @@
         <v>627</v>
       </c>
       <c r="V934" t="n">
-        <v>33.71111111111112</v>
+        <v>34.19722222222222</v>
       </c>
     </row>
     <row r="935">
@@ -65922,7 +65922,7 @@
         <v>627</v>
       </c>
       <c r="V935" t="n">
-        <v>33.80555555555556</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="936">
@@ -65992,7 +65992,7 @@
         <v>627</v>
       </c>
       <c r="V936" t="n">
-        <v>33.90000000000001</v>
+        <v>34.40277777777778</v>
       </c>
     </row>
     <row r="937">
@@ -66062,7 +66062,7 @@
         <v>627</v>
       </c>
       <c r="V937" t="n">
-        <v>33.99444444444445</v>
+        <v>34.54722222222222</v>
       </c>
     </row>
     <row r="938">
@@ -66132,7 +66132,7 @@
         <v>627</v>
       </c>
       <c r="V938" t="n">
-        <v>34.08888888888889</v>
+        <v>34.73611111111111</v>
       </c>
     </row>
     <row r="939">
@@ -66202,7 +66202,7 @@
         <v>627</v>
       </c>
       <c r="V939" t="n">
-        <v>34.18333333333334</v>
+        <v>34.78611111111111</v>
       </c>
     </row>
     <row r="940">
@@ -66272,7 +66272,7 @@
         <v>627</v>
       </c>
       <c r="V940" t="n">
-        <v>34.27777777777778</v>
+        <v>34.83611111111111</v>
       </c>
     </row>
     <row r="941">
@@ -66342,7 +66342,7 @@
         <v>627</v>
       </c>
       <c r="V941" t="n">
-        <v>34.37222222222223</v>
+        <v>34.72222222222222</v>
       </c>
     </row>
     <row r="942">
@@ -66692,7 +66692,7 @@
         <v>628</v>
       </c>
       <c r="V946" t="n">
-        <v>33.0244708994709</v>
+        <v>32.53611111111111</v>
       </c>
     </row>
     <row r="947">
@@ -66762,7 +66762,7 @@
         <v>628</v>
       </c>
       <c r="V947" t="n">
-        <v>33.14060846560847</v>
+        <v>32.45555555555556</v>
       </c>
     </row>
     <row r="948">
@@ -66832,7 +66832,7 @@
         <v>628</v>
       </c>
       <c r="V948" t="n">
-        <v>33.25674603174603</v>
+        <v>32.375</v>
       </c>
     </row>
     <row r="949">
@@ -66902,7 +66902,7 @@
         <v>628</v>
       </c>
       <c r="V949" t="n">
-        <v>33.37288359788359</v>
+        <v>32.50555555555555</v>
       </c>
     </row>
     <row r="950">
@@ -66972,7 +66972,7 @@
         <v>628</v>
       </c>
       <c r="V950" t="n">
-        <v>33.48902116402116</v>
+        <v>32.78888888888889</v>
       </c>
     </row>
     <row r="951">
@@ -67042,7 +67042,7 @@
         <v>628</v>
       </c>
       <c r="V951" t="n">
-        <v>33.60515873015873</v>
+        <v>33.11666666666667</v>
       </c>
     </row>
     <row r="952">
@@ -67112,7 +67112,7 @@
         <v>628</v>
       </c>
       <c r="V952" t="n">
-        <v>33.72129629629629</v>
+        <v>33.34722222222222</v>
       </c>
     </row>
     <row r="953">
@@ -67182,7 +67182,7 @@
         <v>628</v>
       </c>
       <c r="V953" t="n">
-        <v>33.83743386243386</v>
+        <v>33.45555555555556</v>
       </c>
     </row>
     <row r="954">
@@ -67252,7 +67252,7 @@
         <v>628</v>
       </c>
       <c r="V954" t="n">
-        <v>33.95357142857143</v>
+        <v>33.56111111111111</v>
       </c>
     </row>
     <row r="955">
@@ -67322,7 +67322,7 @@
         <v>628</v>
       </c>
       <c r="V955" t="n">
-        <v>34.069708994709</v>
+        <v>33.68888888888889</v>
       </c>
     </row>
     <row r="956">
@@ -67392,7 +67392,7 @@
         <v>628</v>
       </c>
       <c r="V956" t="n">
-        <v>34.18584656084656</v>
+        <v>33.82222222222222</v>
       </c>
     </row>
     <row r="957">
@@ -67462,7 +67462,7 @@
         <v>628</v>
       </c>
       <c r="V957" t="n">
-        <v>34.30198412698412</v>
+        <v>34.01666666666667</v>
       </c>
     </row>
     <row r="958">
@@ -67532,7 +67532,7 @@
         <v>630</v>
       </c>
       <c r="V958" t="n">
-        <v>34.41812169312169</v>
+        <v>34.16388888888888</v>
       </c>
     </row>
     <row r="959">
@@ -67602,7 +67602,7 @@
         <v>630</v>
       </c>
       <c r="V959" t="n">
-        <v>34.53425925925926</v>
+        <v>34.36111111111111</v>
       </c>
     </row>
     <row r="960">
@@ -67672,7 +67672,7 @@
         <v>630</v>
       </c>
       <c r="V960" t="n">
-        <v>34.65039682539683</v>
+        <v>34.58055555555556</v>
       </c>
     </row>
     <row r="961">
@@ -67742,7 +67742,7 @@
         <v>630</v>
       </c>
       <c r="V961" t="n">
-        <v>34.76653439153439</v>
+        <v>34.84166666666667</v>
       </c>
     </row>
     <row r="962">
@@ -67812,7 +67812,7 @@
         <v>630</v>
       </c>
       <c r="V962" t="n">
-        <v>34.88267195767196</v>
+        <v>35.14722222222222</v>
       </c>
     </row>
     <row r="963">
@@ -67882,7 +67882,7 @@
         <v>628</v>
       </c>
       <c r="V963" t="n">
-        <v>34.99880952380952</v>
+        <v>35.40277777777778</v>
       </c>
     </row>
     <row r="964">
@@ -67952,7 +67952,7 @@
         <v>628</v>
       </c>
       <c r="V964" t="n">
-        <v>35.11494708994709</v>
+        <v>35.45972222222223</v>
       </c>
     </row>
     <row r="965">
@@ -68022,7 +68022,7 @@
         <v>628</v>
       </c>
       <c r="V965" t="n">
-        <v>35.23108465608465</v>
+        <v>35.51666666666667</v>
       </c>
     </row>
     <row r="966">
@@ -68512,7 +68512,7 @@
         <v>626</v>
       </c>
       <c r="V972" t="n">
-        <v>32.71611111111111</v>
+        <v>32.30833333333333</v>
       </c>
     </row>
     <row r="973">
@@ -68582,7 +68582,7 @@
         <v>626</v>
       </c>
       <c r="V973" t="n">
-        <v>32.61555555555555</v>
+        <v>31.95833333333333</v>
       </c>
     </row>
     <row r="974">
@@ -68652,7 +68652,7 @@
         <v>627</v>
       </c>
       <c r="V974" t="n">
-        <v>32.515</v>
+        <v>31.85833333333333</v>
       </c>
     </row>
     <row r="975">
@@ -68722,7 +68722,7 @@
         <v>627</v>
       </c>
       <c r="V975" t="n">
-        <v>32.41444444444444</v>
+        <v>31.99722222222222</v>
       </c>
     </row>
     <row r="976">
@@ -68932,7 +68932,7 @@
         <v>627</v>
       </c>
       <c r="V978" t="n">
-        <v>32.77152777777778</v>
+        <v>33.09722222222222</v>
       </c>
     </row>
     <row r="979">
@@ -69002,7 +69002,7 @@
         <v>627</v>
       </c>
       <c r="V979" t="n">
-        <v>32.84027777777777</v>
+        <v>33.175</v>
       </c>
     </row>
     <row r="980">
@@ -69072,7 +69072,7 @@
         <v>627</v>
       </c>
       <c r="V980" t="n">
-        <v>32.90902777777777</v>
+        <v>33.25277777777777</v>
       </c>
     </row>
     <row r="981">
@@ -69912,7 +69912,7 @@
         <v>627</v>
       </c>
       <c r="V992" t="n">
-        <v>26.88611111111111</v>
+        <v>26.83611111111111</v>
       </c>
     </row>
     <row r="993">
@@ -70612,7 +70612,7 @@
         <v>628</v>
       </c>
       <c r="V1002" t="n">
-        <v>20.63777777777778</v>
+        <v>20.28611111111111</v>
       </c>
     </row>
     <row r="1003">
@@ -70682,7 +70682,7 @@
         <v>628</v>
       </c>
       <c r="V1003" t="n">
-        <v>20.60888888888889</v>
+        <v>20.15972222222222</v>
       </c>
     </row>
     <row r="1004">
@@ -70752,7 +70752,7 @@
         <v>628</v>
       </c>
       <c r="V1004" t="n">
-        <v>20.58</v>
+        <v>20.03333333333333</v>
       </c>
     </row>
     <row r="1005">
@@ -70822,7 +70822,7 @@
         <v>628</v>
       </c>
       <c r="V1005" t="n">
-        <v>20.55111111111111</v>
+        <v>20.17222222222222</v>
       </c>
     </row>
     <row r="1006">
@@ -71032,7 +71032,7 @@
         <v>627</v>
       </c>
       <c r="V1008" t="n">
-        <v>21.03531746031746</v>
+        <v>21.33055555555556</v>
       </c>
     </row>
     <row r="1009">
@@ -71102,7 +71102,7 @@
         <v>627</v>
       </c>
       <c r="V1009" t="n">
-        <v>21.1234126984127</v>
+        <v>21.425</v>
       </c>
     </row>
     <row r="1010">
@@ -71172,7 +71172,7 @@
         <v>627</v>
       </c>
       <c r="V1010" t="n">
-        <v>21.21150793650794</v>
+        <v>21.51944444444445</v>
       </c>
     </row>
     <row r="1011">
@@ -71242,7 +71242,7 @@
         <v>627</v>
       </c>
       <c r="V1011" t="n">
-        <v>21.29960317460317</v>
+        <v>21.61388888888889</v>
       </c>
     </row>
     <row r="1012">
@@ -71312,7 +71312,7 @@
         <v>627</v>
       </c>
       <c r="V1012" t="n">
-        <v>21.38769841269841</v>
+        <v>21.49027777777778</v>
       </c>
     </row>
     <row r="1013">
@@ -71382,7 +71382,7 @@
         <v>627</v>
       </c>
       <c r="V1013" t="n">
-        <v>21.47579365079365</v>
+        <v>21.36666666666667</v>
       </c>
     </row>
     <row r="1014">
@@ -71942,7 +71942,7 @@
         <v>627</v>
       </c>
       <c r="V1021" t="n">
-        <v>25.51994949494949</v>
+        <v>25.86666666666667</v>
       </c>
     </row>
     <row r="1022">
@@ -72012,7 +72012,7 @@
         <v>627</v>
       </c>
       <c r="V1022" t="n">
-        <v>25.54823232323232</v>
+        <v>26.11388888888889</v>
       </c>
     </row>
     <row r="1023">
@@ -72082,7 +72082,7 @@
         <v>627</v>
       </c>
       <c r="V1023" t="n">
-        <v>25.57651515151515</v>
+        <v>26.32222222222222</v>
       </c>
     </row>
     <row r="1024">
@@ -72152,7 +72152,7 @@
         <v>627</v>
       </c>
       <c r="V1024" t="n">
-        <v>25.60479797979798</v>
+        <v>26.39259259259259</v>
       </c>
     </row>
     <row r="1025">
@@ -72222,7 +72222,7 @@
         <v>627</v>
       </c>
       <c r="V1025" t="n">
-        <v>25.63308080808081</v>
+        <v>26.46296296296296</v>
       </c>
     </row>
     <row r="1026">
@@ -72292,7 +72292,7 @@
         <v>627</v>
       </c>
       <c r="V1026" t="n">
-        <v>25.66136363636364</v>
+        <v>26.53333333333333</v>
       </c>
     </row>
     <row r="1027">
@@ -72362,7 +72362,7 @@
         <v>628</v>
       </c>
       <c r="V1027" t="n">
-        <v>25.68964646464646</v>
+        <v>26.43055555555556</v>
       </c>
     </row>
     <row r="1028">
@@ -72432,7 +72432,7 @@
         <v>628</v>
       </c>
       <c r="V1028" t="n">
-        <v>25.71792929292929</v>
+        <v>26.325</v>
       </c>
     </row>
     <row r="1029">
@@ -72502,7 +72502,7 @@
         <v>628</v>
       </c>
       <c r="V1029" t="n">
-        <v>25.74621212121212</v>
+        <v>26.21944444444444</v>
       </c>
     </row>
     <row r="1030">
@@ -72572,7 +72572,7 @@
         <v>630</v>
       </c>
       <c r="V1030" t="n">
-        <v>25.77449494949495</v>
+        <v>26.09444444444444</v>
       </c>
     </row>
     <row r="1031">
@@ -72642,7 +72642,7 @@
         <v>630</v>
       </c>
       <c r="V1031" t="n">
-        <v>25.80277777777778</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="1032">
@@ -72712,7 +72712,7 @@
         <v>630</v>
       </c>
       <c r="V1032" t="n">
-        <v>25.83106060606061</v>
+        <v>25.98555555555555</v>
       </c>
     </row>
     <row r="1033">
@@ -72782,7 +72782,7 @@
         <v>630</v>
       </c>
       <c r="V1033" t="n">
-        <v>25.85934343434343</v>
+        <v>25.93111111111111</v>
       </c>
     </row>
     <row r="1034">
@@ -72852,7 +72852,7 @@
         <v>630</v>
       </c>
       <c r="V1034" t="n">
-        <v>25.88762626262626</v>
+        <v>25.87666666666667</v>
       </c>
     </row>
     <row r="1035">
@@ -72922,7 +72922,7 @@
         <v>630</v>
       </c>
       <c r="V1035" t="n">
-        <v>25.91590909090909</v>
+        <v>25.82222222222222</v>
       </c>
     </row>
     <row r="1036">
@@ -72992,7 +72992,7 @@
         <v>630</v>
       </c>
       <c r="V1036" t="n">
-        <v>25.94419191919192</v>
+        <v>25.96388888888889</v>
       </c>
     </row>
     <row r="1037">
@@ -73062,7 +73062,7 @@
         <v>630</v>
       </c>
       <c r="V1037" t="n">
-        <v>25.97247474747475</v>
+        <v>26.10555555555555</v>
       </c>
     </row>
     <row r="1038">
@@ -73132,7 +73132,7 @@
         <v>628</v>
       </c>
       <c r="V1038" t="n">
-        <v>26.00075757575758</v>
+        <v>26.27777777777778</v>
       </c>
     </row>
     <row r="1039">
@@ -73202,7 +73202,7 @@
         <v>628</v>
       </c>
       <c r="V1039" t="n">
-        <v>26.0290404040404</v>
+        <v>26.35972222222222</v>
       </c>
     </row>
     <row r="1040">
@@ -73272,7 +73272,7 @@
         <v>628</v>
       </c>
       <c r="V1040" t="n">
-        <v>26.05732323232323</v>
+        <v>26.44166666666667</v>
       </c>
     </row>
     <row r="1041">
@@ -73342,7 +73342,7 @@
         <v>628</v>
       </c>
       <c r="V1041" t="n">
-        <v>26.08560606060606</v>
+        <v>26.33333333333333</v>
       </c>
     </row>
     <row r="1042">
@@ -73622,7 +73622,7 @@
         <v>627</v>
       </c>
       <c r="V1045" t="n">
-        <v>25.31489898989899</v>
+        <v>25.28416666666667</v>
       </c>
     </row>
     <row r="1046">
@@ -73692,7 +73692,7 @@
         <v>627</v>
       </c>
       <c r="V1046" t="n">
-        <v>25.29924242424243</v>
+        <v>25.23777777777778</v>
       </c>
     </row>
     <row r="1047">
@@ -73762,7 +73762,7 @@
         <v>627</v>
       </c>
       <c r="V1047" t="n">
-        <v>25.28358585858586</v>
+        <v>25.19138888888889</v>
       </c>
     </row>
     <row r="1048">
@@ -73832,7 +73832,7 @@
         <v>627</v>
       </c>
       <c r="V1048" t="n">
-        <v>25.26792929292929</v>
+        <v>25.145</v>
       </c>
     </row>
     <row r="1049">
@@ -73902,7 +73902,7 @@
         <v>627</v>
       </c>
       <c r="V1049" t="n">
-        <v>25.25227272727273</v>
+        <v>25.09861111111111</v>
       </c>
     </row>
     <row r="1050">
@@ -73972,7 +73972,7 @@
         <v>627</v>
       </c>
       <c r="V1050" t="n">
-        <v>25.23661616161616</v>
+        <v>25.05222222222222</v>
       </c>
     </row>
     <row r="1051">
@@ -74042,7 +74042,7 @@
         <v>627</v>
       </c>
       <c r="V1051" t="n">
-        <v>25.2209595959596</v>
+        <v>25.00583333333333</v>
       </c>
     </row>
     <row r="1052">
@@ -74112,7 +74112,7 @@
         <v>627</v>
       </c>
       <c r="V1052" t="n">
-        <v>25.20530303030303</v>
+        <v>24.95944444444444</v>
       </c>
     </row>
     <row r="1053">
@@ -74182,7 +74182,7 @@
         <v>627</v>
       </c>
       <c r="V1053" t="n">
-        <v>25.18964646464646</v>
+        <v>24.91305555555555</v>
       </c>
     </row>
     <row r="1054">
@@ -74252,7 +74252,7 @@
         <v>626</v>
       </c>
       <c r="V1054" t="n">
-        <v>25.1739898989899</v>
+        <v>24.86666666666666</v>
       </c>
     </row>
     <row r="1055">
@@ -74672,7 +74672,7 @@
         <v>626</v>
       </c>
       <c r="V1060" t="n">
-        <v>27.39833333333333</v>
+        <v>27.79722222222222</v>
       </c>
     </row>
     <row r="1061">
@@ -74742,7 +74742,7 @@
         <v>626</v>
       </c>
       <c r="V1061" t="n">
-        <v>27.39388888888889</v>
+        <v>27.86111111111111</v>
       </c>
     </row>
     <row r="1062">
@@ -74812,7 +74812,7 @@
         <v>629</v>
       </c>
       <c r="V1062" t="n">
-        <v>27.38944444444444</v>
+        <v>27.925</v>
       </c>
     </row>
     <row r="1063">
@@ -74882,7 +74882,7 @@
         <v>629</v>
       </c>
       <c r="V1063" t="n">
-        <v>27.385</v>
+        <v>27.72222222222222</v>
       </c>
     </row>
     <row r="1064">
@@ -75302,7 +75302,7 @@
         <v>634</v>
       </c>
       <c r="V1069" t="n">
-        <v>25.55079365079365</v>
+        <v>25.28888888888889</v>
       </c>
     </row>
     <row r="1070">
@@ -75372,7 +75372,7 @@
         <v>634</v>
       </c>
       <c r="V1070" t="n">
-        <v>25.42936507936508</v>
+        <v>25.23214285714286</v>
       </c>
     </row>
     <row r="1071">
@@ -75442,7 +75442,7 @@
         <v>634</v>
       </c>
       <c r="V1071" t="n">
-        <v>25.30793650793651</v>
+        <v>25.17539682539683</v>
       </c>
     </row>
     <row r="1072">
@@ -75512,7 +75512,7 @@
         <v>634</v>
       </c>
       <c r="V1072" t="n">
-        <v>25.18650793650794</v>
+        <v>25.11865079365079</v>
       </c>
     </row>
     <row r="1073">
@@ -75582,7 +75582,7 @@
         <v>634</v>
       </c>
       <c r="V1073" t="n">
-        <v>25.06507936507936</v>
+        <v>25.06190476190476</v>
       </c>
     </row>
     <row r="1074">
@@ -75652,7 +75652,7 @@
         <v>630</v>
       </c>
       <c r="V1074" t="n">
-        <v>24.94365079365079</v>
+        <v>25.00515873015873</v>
       </c>
     </row>
     <row r="1075">
@@ -75722,7 +75722,7 @@
         <v>630</v>
       </c>
       <c r="V1075" t="n">
-        <v>24.82222222222222</v>
+        <v>24.9484126984127</v>
       </c>
     </row>
     <row r="1076">
@@ -75792,7 +75792,7 @@
         <v>630</v>
       </c>
       <c r="V1076" t="n">
-        <v>24.70079365079365</v>
+        <v>24.89166666666667</v>
       </c>
     </row>
     <row r="1077">
@@ -75862,7 +75862,7 @@
         <v>630</v>
       </c>
       <c r="V1077" t="n">
-        <v>24.57936507936508</v>
+        <v>24.75833333333333</v>
       </c>
     </row>
     <row r="1078">
@@ -75932,7 +75932,7 @@
         <v>630</v>
       </c>
       <c r="V1078" t="n">
-        <v>24.45793650793651</v>
+        <v>24.625</v>
       </c>
     </row>
     <row r="1079">
@@ -76002,7 +76002,7 @@
         <v>630</v>
       </c>
       <c r="V1079" t="n">
-        <v>24.33650793650794</v>
+        <v>24.49444444444445</v>
       </c>
     </row>
     <row r="1080">
@@ -76072,7 +76072,7 @@
         <v>630</v>
       </c>
       <c r="V1080" t="n">
-        <v>24.21507936507937</v>
+        <v>24.375</v>
       </c>
     </row>
     <row r="1081">
@@ -76142,7 +76142,7 @@
         <v>630</v>
       </c>
       <c r="V1081" t="n">
-        <v>24.09365079365079</v>
+        <v>24.23055555555555</v>
       </c>
     </row>
     <row r="1082">
@@ -76912,7 +76912,7 @@
         <v>634</v>
       </c>
       <c r="V1092" t="n">
-        <v>19.23037037037037</v>
+        <v>19.03888888888889</v>
       </c>
     </row>
     <row r="1093">
@@ -76982,7 +76982,7 @@
         <v>634</v>
       </c>
       <c r="V1093" t="n">
-        <v>19.04407407407408</v>
+        <v>18.71388888888889</v>
       </c>
     </row>
     <row r="1094">
@@ -77052,7 +77052,7 @@
         <v>634</v>
       </c>
       <c r="V1094" t="n">
-        <v>18.85777777777778</v>
+        <v>18.46666666666667</v>
       </c>
     </row>
     <row r="1095">
@@ -77122,7 +77122,7 @@
         <v>634</v>
       </c>
       <c r="V1095" t="n">
-        <v>18.67148148148148</v>
+        <v>18.275</v>
       </c>
     </row>
     <row r="1096">
@@ -77192,7 +77192,7 @@
         <v>634</v>
       </c>
       <c r="V1096" t="n">
-        <v>18.48518518518519</v>
+        <v>18.02777777777778</v>
       </c>
     </row>
     <row r="1097">
@@ -77262,7 +77262,7 @@
         <v>634</v>
       </c>
       <c r="V1097" t="n">
-        <v>18.29888888888889</v>
+        <v>17.78333333333333</v>
       </c>
     </row>
     <row r="1098">
@@ -77332,7 +77332,7 @@
         <v>634</v>
       </c>
       <c r="V1098" t="n">
-        <v>18.11259259259259</v>
+        <v>17.54166666666666</v>
       </c>
     </row>
     <row r="1099">
@@ -77402,7 +77402,7 @@
         <v>632</v>
       </c>
       <c r="V1099" t="n">
-        <v>17.9262962962963</v>
+        <v>17.29722222222222</v>
       </c>
     </row>
     <row r="1100">
@@ -77472,7 +77472,7 @@
         <v>632</v>
       </c>
       <c r="V1100" t="n">
-        <v>17.74</v>
+        <v>17.23944444444444</v>
       </c>
     </row>
     <row r="1101">
@@ -77542,7 +77542,7 @@
         <v>632</v>
       </c>
       <c r="V1101" t="n">
-        <v>17.5537037037037</v>
+        <v>17.18166666666667</v>
       </c>
     </row>
     <row r="1102">
@@ -77612,7 +77612,7 @@
         <v>632</v>
       </c>
       <c r="V1102" t="n">
-        <v>17.36740740740741</v>
+        <v>17.12388888888889</v>
       </c>
     </row>
     <row r="1103">
@@ -77682,7 +77682,7 @@
         <v>632</v>
       </c>
       <c r="V1103" t="n">
-        <v>17.18111111111111</v>
+        <v>17.06611111111111</v>
       </c>
     </row>
     <row r="1104">
@@ -77752,7 +77752,7 @@
         <v>632</v>
       </c>
       <c r="V1104" t="n">
-        <v>16.99481481481482</v>
+        <v>17.00833333333333</v>
       </c>
     </row>
     <row r="1105">
@@ -77822,7 +77822,7 @@
         <v>636</v>
       </c>
       <c r="V1105" t="n">
-        <v>16.80851851851852</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="1106">
